--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1791497.305834266</v>
+        <v>1788185.254761703</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10933575.73816094</v>
+        <v>10933575.73816095</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5590096.292725642</v>
+        <v>5590096.292725643</v>
       </c>
     </row>
     <row r="9">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>281.0198528978131</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>407.4250577753879</v>
       </c>
       <c r="H11" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>75.03572506660649</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>158.6505258846611</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>79.115188209602</v>
       </c>
       <c r="I12" t="n">
-        <v>19.30703081126193</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326373</v>
       </c>
       <c r="T12" t="n">
         <v>171.7502977295325</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9059774601761</v>
+        <v>207.9059774601763</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>53.68387854277757</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.098252586491</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T13" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5451077791103</v>
@@ -1590,10 +1590,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>1.147549884152473</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>334.0852973710784</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>214.2350241967096</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>164.0435498432456</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>79.115188209602</v>
       </c>
       <c r="I15" t="n">
-        <v>19.30703081126193</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T15" t="n">
         <v>171.7502977295325</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9059774601763</v>
+        <v>207.9059774601759</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>170.8764929053696</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H16" t="n">
-        <v>147.518507518659</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.098252586491</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>134.8430093721053</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>269.1415340680791</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>75.03572506660649</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>214.2350241967096</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>146.7331353586715</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>79.115188209602</v>
       </c>
       <c r="I18" t="n">
-        <v>19.3070308112624</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T18" t="n">
         <v>171.7502977295325</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.68387854277733</v>
+        <v>53.68387854277756</v>
       </c>
       <c r="T19" t="n">
         <v>230.2836698365084</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>193.8458863888127</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>214.2350241967096</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>270.4637117018616</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965522</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
@@ -2180,7 +2180,7 @@
         <v>79.115188209602</v>
       </c>
       <c r="I21" t="n">
-        <v>19.30703081126193</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T21" t="n">
         <v>171.7502977295325</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9059774601759</v>
+        <v>207.9059774601763</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>16.94805900915093</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>107.8606370486346</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.098252586491</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>230.2836698365084</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>357.3460217558286</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -2335,10 +2335,10 @@
         <v>407.4250577753879</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>253.0667166552282</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>287.4012306368483</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2417,7 +2417,7 @@
         <v>79.115188209602</v>
       </c>
       <c r="I24" t="n">
-        <v>19.30703081126193</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T24" t="n">
         <v>171.7502977295325</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.68387854277778</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>230.2836698365084</v>
+        <v>113.3889574522564</v>
       </c>
       <c r="U25" t="n">
         <v>282.5451077791103</v>
@@ -2541,10 +2541,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>241.9182191825548</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H26" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>75.03572506660649</v>
@@ -2611,7 +2611,7 @@
         <v>214.2350241967096</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>138.8872150901649</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2654,7 +2654,7 @@
         <v>79.115188209602</v>
       </c>
       <c r="I27" t="n">
-        <v>19.30703081126193</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T27" t="n">
         <v>171.7502977295325</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H28" t="n">
-        <v>117.7043279765208</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I28" t="n">
-        <v>110.098252586491</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>188.2328313595025</v>
@@ -2769,19 +2769,19 @@
         <v>230.2836698365084</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>15.37198453242539</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>293.245556210327</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I29" t="n">
-        <v>75.03572506660649</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>214.2350241967096</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>276.8179311551661</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2891,7 +2891,7 @@
         <v>79.115188209602</v>
       </c>
       <c r="I30" t="n">
-        <v>19.30703081126193</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T30" t="n">
         <v>171.7502977295325</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>58.90097546018045</v>
+        <v>57.72722877575225</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>214.2350241967096</v>
       </c>
       <c r="U32" t="n">
-        <v>37.77898172145309</v>
+        <v>37.77898172145039</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3128,7 +3128,7 @@
         <v>79.115188209602</v>
       </c>
       <c r="I33" t="n">
-        <v>19.30703081126193</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T33" t="n">
         <v>171.7502977295325</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.4644816246152</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5451077791103</v>
+        <v>152.8730478175</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>318.4014771509051</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>222.8435790788132</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>117.9998964437302</v>
+        <v>117.9998964437307</v>
       </c>
       <c r="H36" t="n">
         <v>79.115188209602</v>
       </c>
       <c r="I36" t="n">
-        <v>19.30703081126193</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T36" t="n">
         <v>171.7502977295325</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>230.2836698365084</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5451077791103</v>
+        <v>167.7259195672173</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -3492,7 +3492,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>86.33198775479825</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3517,13 +3517,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>407.4250577753879</v>
+        <v>158.7431135333115</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.7089096361537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>79.115188209602</v>
       </c>
       <c r="I39" t="n">
-        <v>19.30703081126193</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T39" t="n">
         <v>171.7502977295325</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T40" t="n">
-        <v>100.6116098748974</v>
+        <v>95.73471701978329</v>
       </c>
       <c r="U40" t="n">
         <v>282.5451077791103</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>293.6555216764683</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>407.4250577753879</v>
       </c>
       <c r="H41" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>216.4554926088726</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>79.115188209602</v>
       </c>
       <c r="I42" t="n">
-        <v>19.30703081126193</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T42" t="n">
         <v>171.7502977295325</v>
@@ -3900,19 +3900,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>55.557553354953</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>152.8411356214586</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.7089096361528</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>407.4250577753879</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>153.0295438534068</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>79.115188209602</v>
       </c>
       <c r="I45" t="n">
-        <v>19.30703081126193</v>
+        <v>19.30703081126192</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.6198168326376</v>
+        <v>117.6198168326375</v>
       </c>
       <c r="T45" t="n">
-        <v>171.7502977295325</v>
+        <v>171.7502977295322</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9059774601756</v>
+        <v>207.9059774601763</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.17121085534871</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>188.2328313595025</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>198.3260190482617</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1124.285866766165</v>
+        <v>1259.500593971621</v>
       </c>
       <c r="C11" t="n">
-        <v>1124.285866766165</v>
+        <v>1259.500593971621</v>
       </c>
       <c r="D11" t="n">
-        <v>1124.285866766165</v>
+        <v>874.0594651882884</v>
       </c>
       <c r="E11" t="n">
-        <v>1124.285866766165</v>
+        <v>874.0594651882884</v>
       </c>
       <c r="F11" t="n">
-        <v>840.4274294956468</v>
+        <v>457.1650267182661</v>
       </c>
       <c r="G11" t="n">
-        <v>428.8869670962651</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="H11" t="n">
-        <v>121.4182260023253</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="I11" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J11" t="n">
-        <v>325.2244043032</v>
+        <v>325.2244043032001</v>
       </c>
       <c r="K11" t="n">
-        <v>385.8517535058461</v>
+        <v>408.5950310205399</v>
       </c>
       <c r="L11" t="n">
-        <v>844.8002680638647</v>
+        <v>973.1990144667342</v>
       </c>
       <c r="M11" t="n">
-        <v>1409.404251510059</v>
+        <v>1104.162965432805</v>
       </c>
       <c r="N11" t="n">
-        <v>1545.486311567597</v>
+        <v>1240.245025490343</v>
       </c>
       <c r="O11" t="n">
-        <v>2110.090295013792</v>
+        <v>1360.075536158923</v>
       </c>
       <c r="P11" t="n">
-        <v>2189.937212934257</v>
+        <v>1924.679519605117</v>
       </c>
       <c r="Q11" t="n">
-        <v>2218.586637698203</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="R11" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="S11" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="T11" t="n">
-        <v>2281.22821594422</v>
+        <v>2064.829201604109</v>
       </c>
       <c r="U11" t="n">
-        <v>2281.22821594422</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="V11" t="n">
-        <v>2281.22821594422</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="W11" t="n">
-        <v>1910.229180912507</v>
+        <v>1648.953199038564</v>
       </c>
       <c r="X11" t="n">
-        <v>1520.776575845564</v>
+        <v>1259.500593971621</v>
       </c>
       <c r="Y11" t="n">
-        <v>1124.285866766165</v>
+        <v>1259.500593971621</v>
       </c>
     </row>
     <row r="12">
@@ -5096,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>805.8542565822763</v>
+        <v>805.8542565822761</v>
       </c>
       <c r="C12" t="n">
-        <v>655.2000261423684</v>
+        <v>655.2000261423683</v>
       </c>
       <c r="D12" t="n">
-        <v>525.1110587638489</v>
+        <v>525.1110587638486</v>
       </c>
       <c r="E12" t="n">
-        <v>388.6645678747366</v>
+        <v>388.6645678747363</v>
       </c>
       <c r="F12" t="n">
-        <v>264.2327617578683</v>
+        <v>264.2327617578682</v>
       </c>
       <c r="G12" t="n">
-        <v>145.0409471682419</v>
+        <v>145.0409471682417</v>
       </c>
       <c r="H12" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I12" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J12" t="n">
-        <v>239.1148819882603</v>
+        <v>239.1148819882602</v>
       </c>
       <c r="K12" t="n">
-        <v>292.1288304040118</v>
+        <v>696.2282783290117</v>
       </c>
       <c r="L12" t="n">
-        <v>856.7328138502062</v>
+        <v>791.785167475589</v>
       </c>
       <c r="M12" t="n">
-        <v>1421.336797296401</v>
+        <v>1356.389150921783</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.079118482372</v>
+        <v>1751.378934846224</v>
       </c>
       <c r="O12" t="n">
-        <v>1668.728760707514</v>
+        <v>1862.028577071366</v>
       </c>
       <c r="P12" t="n">
-        <v>2233.332744153709</v>
+        <v>1938.268176943687</v>
       </c>
       <c r="Q12" t="n">
-        <v>2251.849419974995</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="R12" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="S12" t="n">
         <v>2162.420320153677</v>
@@ -5159,13 +5159,13 @@
         <v>1556.389131464432</v>
       </c>
       <c r="W12" t="n">
-        <v>1326.271885597719</v>
+        <v>1326.271885597718</v>
       </c>
       <c r="X12" t="n">
         <v>1136.96480794773</v>
       </c>
       <c r="Y12" t="n">
-        <v>957.6505910232377</v>
+        <v>957.6505910232374</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.85070426108396</v>
+        <v>473.3698629797163</v>
       </c>
       <c r="C13" t="n">
-        <v>99.85070426108396</v>
+        <v>473.3698629797163</v>
       </c>
       <c r="D13" t="n">
-        <v>99.85070426108396</v>
+        <v>473.3698629797163</v>
       </c>
       <c r="E13" t="n">
-        <v>99.85070426108396</v>
+        <v>473.3698629797163</v>
       </c>
       <c r="F13" t="n">
-        <v>99.85070426108396</v>
+        <v>473.3698629797163</v>
       </c>
       <c r="G13" t="n">
-        <v>45.6245643188844</v>
+        <v>305.843513920046</v>
       </c>
       <c r="H13" t="n">
-        <v>45.6245643188844</v>
+        <v>156.8349204668551</v>
       </c>
       <c r="I13" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J13" t="n">
         <v>66.27572420016885</v>
       </c>
       <c r="K13" t="n">
-        <v>230.9743700006168</v>
+        <v>230.9743700006169</v>
       </c>
       <c r="L13" t="n">
-        <v>501.1388949376825</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M13" t="n">
-        <v>799.2315011068071</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N13" t="n">
         <v>1091.563784414643</v>
@@ -5217,7 +5217,7 @@
         <v>1355.079453313002</v>
       </c>
       <c r="P13" t="n">
-        <v>1561.216761249399</v>
+        <v>1561.2167612494</v>
       </c>
       <c r="Q13" t="n">
         <v>1624.361701187858</v>
@@ -5226,25 +5226,25 @@
         <v>1624.361701187858</v>
       </c>
       <c r="S13" t="n">
-        <v>1624.361701187858</v>
+        <v>1434.227528097452</v>
       </c>
       <c r="T13" t="n">
-        <v>1391.751933676234</v>
+        <v>1434.227528097452</v>
       </c>
       <c r="U13" t="n">
-        <v>1106.352834909456</v>
+        <v>1148.828429330674</v>
       </c>
       <c r="V13" t="n">
-        <v>840.3734897302799</v>
+        <v>882.849084151498</v>
       </c>
       <c r="W13" t="n">
-        <v>557.0430876614575</v>
+        <v>882.849084151498</v>
       </c>
       <c r="X13" t="n">
-        <v>322.9627654444406</v>
+        <v>881.6899428543743</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.85070426108396</v>
+        <v>658.5778816710176</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1564.284615817164</v>
+        <v>1243.010954379102</v>
       </c>
       <c r="C14" t="n">
-        <v>1171.109114320095</v>
+        <v>1243.010954379102</v>
       </c>
       <c r="D14" t="n">
-        <v>785.6679855367624</v>
+        <v>1243.010954379102</v>
       </c>
       <c r="E14" t="n">
-        <v>383.084460653307</v>
+        <v>840.4274294956468</v>
       </c>
       <c r="F14" t="n">
-        <v>45.6245643188844</v>
+        <v>840.4274294956468</v>
       </c>
       <c r="G14" t="n">
-        <v>45.6245643188844</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="H14" t="n">
-        <v>45.6245643188844</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="I14" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J14" t="n">
-        <v>64.0715918314493</v>
+        <v>325.2244043032001</v>
       </c>
       <c r="K14" t="n">
-        <v>124.6989410340954</v>
+        <v>385.8517535058462</v>
       </c>
       <c r="L14" t="n">
-        <v>689.3029244802899</v>
+        <v>485.0514864363261</v>
       </c>
       <c r="M14" t="n">
-        <v>1253.906907926484</v>
+        <v>616.0154374023965</v>
       </c>
       <c r="N14" t="n">
-        <v>1818.510891372679</v>
+        <v>1180.619420848591</v>
       </c>
       <c r="O14" t="n">
-        <v>2110.090295013792</v>
+        <v>1300.449931517171</v>
       </c>
       <c r="P14" t="n">
-        <v>2189.937212934257</v>
+        <v>1862.037941359101</v>
       </c>
       <c r="Q14" t="n">
         <v>2218.586637698203</v>
@@ -5305,25 +5305,25 @@
         <v>2281.22821594422</v>
       </c>
       <c r="S14" t="n">
-        <v>2151.682665188987</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T14" t="n">
-        <v>1935.283650848877</v>
+        <v>2064.829201604109</v>
       </c>
       <c r="U14" t="n">
-        <v>1935.283650848877</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="V14" t="n">
-        <v>1935.283650848877</v>
+        <v>1643.505700090499</v>
       </c>
       <c r="W14" t="n">
-        <v>1564.284615817164</v>
+        <v>1643.505700090499</v>
       </c>
       <c r="X14" t="n">
-        <v>1564.284615817164</v>
+        <v>1643.505700090499</v>
       </c>
       <c r="Y14" t="n">
-        <v>1564.284615817164</v>
+        <v>1643.505700090499</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>805.8542565822763</v>
+        <v>805.8542565822768</v>
       </c>
       <c r="C15" t="n">
-        <v>655.2000261423684</v>
+        <v>655.2000261423689</v>
       </c>
       <c r="D15" t="n">
-        <v>525.1110587638489</v>
+        <v>525.1110587638491</v>
       </c>
       <c r="E15" t="n">
-        <v>388.6645678747365</v>
+        <v>388.6645678747368</v>
       </c>
       <c r="F15" t="n">
-        <v>264.2327617578683</v>
+        <v>264.2327617578685</v>
       </c>
       <c r="G15" t="n">
         <v>145.0409471682419</v>
       </c>
       <c r="H15" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I15" t="n">
         <v>45.6245643188844</v>
@@ -5360,22 +5360,22 @@
         <v>45.6245643188844</v>
       </c>
       <c r="K15" t="n">
-        <v>94.29784861740944</v>
+        <v>502.7379606596359</v>
       </c>
       <c r="L15" t="n">
-        <v>463.2811939428043</v>
+        <v>972.8010872984089</v>
       </c>
       <c r="M15" t="n">
-        <v>1027.885177388999</v>
+        <v>1096.893434117155</v>
       </c>
       <c r="N15" t="n">
-        <v>1592.489160835193</v>
+        <v>1233.635755303127</v>
       </c>
       <c r="O15" t="n">
-        <v>2157.093144281388</v>
+        <v>1344.285397528269</v>
       </c>
       <c r="P15" t="n">
-        <v>2233.332744153709</v>
+        <v>1908.889380974463</v>
       </c>
       <c r="Q15" t="n">
         <v>2251.849419974995</v>
@@ -5399,10 +5399,10 @@
         <v>1326.271885597719</v>
       </c>
       <c r="X15" t="n">
-        <v>1136.96480794773</v>
+        <v>1136.964807947731</v>
       </c>
       <c r="Y15" t="n">
-        <v>957.6505910232377</v>
+        <v>957.6505910232381</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>305.843513920046</v>
+        <v>696.3150791970778</v>
       </c>
       <c r="C16" t="n">
-        <v>305.843513920046</v>
+        <v>526.109961263067</v>
       </c>
       <c r="D16" t="n">
-        <v>305.843513920046</v>
+        <v>370.4768481655818</v>
       </c>
       <c r="E16" t="n">
-        <v>305.843513920046</v>
+        <v>370.4768481655818</v>
       </c>
       <c r="F16" t="n">
-        <v>305.843513920046</v>
+        <v>213.1509133785547</v>
       </c>
       <c r="G16" t="n">
-        <v>305.843513920046</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="H16" t="n">
-        <v>156.8349204668551</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I16" t="n">
         <v>45.6245643188844</v>
@@ -5439,13 +5439,13 @@
         <v>66.27572420016885</v>
       </c>
       <c r="K16" t="n">
-        <v>230.9743700006168</v>
+        <v>230.9743700006169</v>
       </c>
       <c r="L16" t="n">
-        <v>501.1388949376825</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M16" t="n">
-        <v>799.2315011068071</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N16" t="n">
         <v>1091.563784414643</v>
@@ -5454,7 +5454,7 @@
         <v>1355.079453313002</v>
       </c>
       <c r="P16" t="n">
-        <v>1561.216761249399</v>
+        <v>1561.2167612494</v>
       </c>
       <c r="Q16" t="n">
         <v>1624.361701187858</v>
@@ -5463,25 +5463,25 @@
         <v>1624.361701187858</v>
       </c>
       <c r="S16" t="n">
-        <v>1434.227528097452</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.617760585827</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="U16" t="n">
-        <v>1201.617760585827</v>
+        <v>1338.96260242108</v>
       </c>
       <c r="V16" t="n">
-        <v>935.6384154066515</v>
+        <v>1338.96260242108</v>
       </c>
       <c r="W16" t="n">
-        <v>935.6384154066515</v>
+        <v>1055.632200352258</v>
       </c>
       <c r="X16" t="n">
-        <v>701.5580931896345</v>
+        <v>919.4271403804345</v>
       </c>
       <c r="Y16" t="n">
-        <v>478.4460320062778</v>
+        <v>696.3150791970778</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>428.8869670962651</v>
+        <v>1113.243726121711</v>
       </c>
       <c r="C17" t="n">
-        <v>428.8869670962651</v>
+        <v>720.068224624642</v>
       </c>
       <c r="D17" t="n">
-        <v>428.8869670962651</v>
+        <v>720.068224624642</v>
       </c>
       <c r="E17" t="n">
-        <v>428.8869670962651</v>
+        <v>317.4846997411865</v>
       </c>
       <c r="F17" t="n">
-        <v>428.8869670962651</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="G17" t="n">
-        <v>428.8869670962651</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="H17" t="n">
-        <v>121.4182260023253</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I17" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J17" t="n">
-        <v>64.0715918314493</v>
+        <v>325.2244043032001</v>
       </c>
       <c r="K17" t="n">
-        <v>124.6989410340954</v>
+        <v>811.3577032902381</v>
       </c>
       <c r="L17" t="n">
-        <v>689.3029244802899</v>
+        <v>910.5574362207179</v>
       </c>
       <c r="M17" t="n">
-        <v>1253.906907926484</v>
+        <v>1041.521387186788</v>
       </c>
       <c r="N17" t="n">
-        <v>1818.510891372679</v>
+        <v>1177.603447244327</v>
       </c>
       <c r="O17" t="n">
-        <v>1938.341402041259</v>
+        <v>1297.433957912906</v>
       </c>
       <c r="P17" t="n">
-        <v>2018.188319961724</v>
+        <v>1862.037941359101</v>
       </c>
       <c r="Q17" t="n">
         <v>2218.586637698203</v>
@@ -5542,25 +5542,25 @@
         <v>2281.22821594422</v>
       </c>
       <c r="S17" t="n">
-        <v>2151.682665188987</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T17" t="n">
-        <v>1935.283650848877</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="U17" t="n">
-        <v>1679.660704732485</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="V17" t="n">
-        <v>1337.553895436003</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="W17" t="n">
-        <v>966.5548604042906</v>
+        <v>1910.229180912507</v>
       </c>
       <c r="X17" t="n">
-        <v>577.1022553373474</v>
+        <v>1910.229180912507</v>
       </c>
       <c r="Y17" t="n">
-        <v>428.8869670962651</v>
+        <v>1513.738471833108</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>805.8542565822768</v>
+        <v>805.8542565822763</v>
       </c>
       <c r="C18" t="n">
-        <v>655.200026142369</v>
+        <v>655.2000261423684</v>
       </c>
       <c r="D18" t="n">
-        <v>525.1110587638493</v>
+        <v>525.1110587638489</v>
       </c>
       <c r="E18" t="n">
-        <v>388.664567874737</v>
+        <v>388.6645678747366</v>
       </c>
       <c r="F18" t="n">
-        <v>264.2327617578688</v>
+        <v>264.2327617578683</v>
       </c>
       <c r="G18" t="n">
-        <v>145.0409471682424</v>
+        <v>145.0409471682419</v>
       </c>
       <c r="H18" t="n">
-        <v>65.12661564339187</v>
+        <v>65.1266156433914</v>
       </c>
       <c r="I18" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J18" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K18" t="n">
-        <v>94.29784861740944</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L18" t="n">
-        <v>463.2811939428043</v>
+        <v>791.7851674755891</v>
       </c>
       <c r="M18" t="n">
-        <v>1027.885177388999</v>
+        <v>915.877514294335</v>
       </c>
       <c r="N18" t="n">
-        <v>1592.489160835193</v>
+        <v>1052.619835480307</v>
       </c>
       <c r="O18" t="n">
-        <v>2157.093144281388</v>
+        <v>1344.285397528269</v>
       </c>
       <c r="P18" t="n">
-        <v>2233.332744153709</v>
+        <v>1908.889380974463</v>
       </c>
       <c r="Q18" t="n">
         <v>2251.849419974995</v>
@@ -5624,7 +5624,7 @@
         <v>2162.420320153677</v>
       </c>
       <c r="T18" t="n">
-        <v>1988.935170931927</v>
+        <v>1988.935170931926</v>
       </c>
       <c r="U18" t="n">
         <v>1778.929133093365</v>
@@ -5636,10 +5636,10 @@
         <v>1326.271885597719</v>
       </c>
       <c r="X18" t="n">
-        <v>1136.964807947731</v>
+        <v>1136.96480794773</v>
       </c>
       <c r="Y18" t="n">
-        <v>957.6505910232381</v>
+        <v>957.6505910232377</v>
       </c>
     </row>
     <row r="19">
@@ -5676,13 +5676,13 @@
         <v>66.27572420016885</v>
       </c>
       <c r="K19" t="n">
-        <v>230.9743700006168</v>
+        <v>230.9743700006169</v>
       </c>
       <c r="L19" t="n">
-        <v>501.1388949376825</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M19" t="n">
-        <v>799.2315011068071</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N19" t="n">
         <v>1091.563784414643</v>
@@ -5691,7 +5691,7 @@
         <v>1355.079453313002</v>
       </c>
       <c r="P19" t="n">
-        <v>1561.216761249399</v>
+        <v>1561.2167612494</v>
       </c>
       <c r="Q19" t="n">
         <v>1624.361701187858</v>
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>865.1025276723622</v>
+        <v>1412.715546408318</v>
       </c>
       <c r="C20" t="n">
-        <v>865.1025276723622</v>
+        <v>1412.715546408318</v>
       </c>
       <c r="D20" t="n">
-        <v>865.1025276723622</v>
+        <v>1027.274417624986</v>
       </c>
       <c r="E20" t="n">
-        <v>462.5190027889066</v>
+        <v>624.6908927415304</v>
       </c>
       <c r="F20" t="n">
-        <v>45.6245643188844</v>
+        <v>624.6908927415304</v>
       </c>
       <c r="G20" t="n">
-        <v>45.6245643188844</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="H20" t="n">
-        <v>45.6245643188844</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="I20" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J20" t="n">
-        <v>325.2244043032</v>
+        <v>325.2244043032001</v>
       </c>
       <c r="K20" t="n">
-        <v>385.8517535058461</v>
+        <v>886.4619286807531</v>
       </c>
       <c r="L20" t="n">
-        <v>485.0514864363259</v>
+        <v>1395.314501746447</v>
       </c>
       <c r="M20" t="n">
-        <v>1049.65546988252</v>
+        <v>1526.278452712517</v>
       </c>
       <c r="N20" t="n">
-        <v>1545.486311567597</v>
+        <v>1662.360512770055</v>
       </c>
       <c r="O20" t="n">
-        <v>2110.090295013792</v>
+        <v>1782.191023438635</v>
       </c>
       <c r="P20" t="n">
-        <v>2189.937212934257</v>
+        <v>1862.037941359101</v>
       </c>
       <c r="Q20" t="n">
         <v>2218.586637698203</v>
@@ -5779,25 +5779,25 @@
         <v>2281.22821594422</v>
       </c>
       <c r="S20" t="n">
-        <v>2151.682665188987</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T20" t="n">
-        <v>1935.283650848877</v>
+        <v>2064.829201604109</v>
       </c>
       <c r="U20" t="n">
-        <v>1935.283650848877</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="V20" t="n">
-        <v>1935.283650848877</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="W20" t="n">
-        <v>1662.087982463158</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="X20" t="n">
-        <v>1662.087982463158</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="Y20" t="n">
-        <v>1265.597273383759</v>
+        <v>1412.715546408318</v>
       </c>
     </row>
     <row r="21">
@@ -5816,34 +5816,34 @@
         <v>525.1110587638489</v>
       </c>
       <c r="E21" t="n">
-        <v>388.6645678747366</v>
+        <v>388.6645678747365</v>
       </c>
       <c r="F21" t="n">
-        <v>264.2327617578684</v>
+        <v>264.2327617578683</v>
       </c>
       <c r="G21" t="n">
         <v>145.0409471682419</v>
       </c>
       <c r="H21" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I21" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J21" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K21" t="n">
-        <v>94.29784861740944</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L21" t="n">
-        <v>189.8547377639867</v>
+        <v>791.7851674755891</v>
       </c>
       <c r="M21" t="n">
-        <v>313.9470845827326</v>
+        <v>915.877514294335</v>
       </c>
       <c r="N21" t="n">
-        <v>779.6814140820741</v>
+        <v>1052.619835480307</v>
       </c>
       <c r="O21" t="n">
         <v>1344.285397528269</v>
@@ -5873,10 +5873,10 @@
         <v>1326.271885597719</v>
       </c>
       <c r="X21" t="n">
-        <v>1136.964807947731</v>
+        <v>1136.96480794773</v>
       </c>
       <c r="Y21" t="n">
-        <v>957.6505910232381</v>
+        <v>957.6505910232377</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>793.2976807111693</v>
+        <v>322.9627654444408</v>
       </c>
       <c r="C22" t="n">
-        <v>623.0925627771585</v>
+        <v>305.843513920046</v>
       </c>
       <c r="D22" t="n">
-        <v>467.4594496796732</v>
+        <v>305.843513920046</v>
       </c>
       <c r="E22" t="n">
-        <v>311.9006375388757</v>
+        <v>305.843513920046</v>
       </c>
       <c r="F22" t="n">
-        <v>154.5747027518487</v>
+        <v>305.843513920046</v>
       </c>
       <c r="G22" t="n">
-        <v>45.6245643188844</v>
+        <v>305.843513920046</v>
       </c>
       <c r="H22" t="n">
-        <v>45.6245643188844</v>
+        <v>156.8349204668551</v>
       </c>
       <c r="I22" t="n">
         <v>45.6245643188844</v>
@@ -5913,13 +5913,13 @@
         <v>66.27572420016885</v>
       </c>
       <c r="K22" t="n">
-        <v>230.9743700006168</v>
+        <v>230.9743700006169</v>
       </c>
       <c r="L22" t="n">
-        <v>501.1388949376825</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M22" t="n">
-        <v>799.2315011068071</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N22" t="n">
         <v>1091.563784414643</v>
@@ -5928,7 +5928,7 @@
         <v>1355.079453313002</v>
       </c>
       <c r="P22" t="n">
-        <v>1561.216761249399</v>
+        <v>1561.2167612494</v>
       </c>
       <c r="Q22" t="n">
         <v>1624.361701187858</v>
@@ -5937,25 +5937,25 @@
         <v>1624.361701187858</v>
       </c>
       <c r="S22" t="n">
-        <v>1434.227528097452</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="T22" t="n">
-        <v>1201.617760585827</v>
+        <v>1391.751933676234</v>
       </c>
       <c r="U22" t="n">
-        <v>1201.617760585827</v>
+        <v>1106.352834909456</v>
       </c>
       <c r="V22" t="n">
-        <v>1201.617760585827</v>
+        <v>840.3734897302801</v>
       </c>
       <c r="W22" t="n">
-        <v>1201.617760585827</v>
+        <v>557.0430876614578</v>
       </c>
       <c r="X22" t="n">
-        <v>1201.617760585827</v>
+        <v>322.9627654444408</v>
       </c>
       <c r="Y22" t="n">
-        <v>978.5056994024706</v>
+        <v>322.9627654444408</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2100.88418467103</v>
+        <v>2484.146587448411</v>
       </c>
       <c r="C23" t="n">
-        <v>1707.70868317396</v>
+        <v>2090.971085951341</v>
       </c>
       <c r="D23" t="n">
-        <v>1322.267554390628</v>
+        <v>1705.529957168009</v>
       </c>
       <c r="E23" t="n">
-        <v>919.6840295071728</v>
+        <v>1302.946432284553</v>
       </c>
       <c r="F23" t="n">
-        <v>502.7895910371506</v>
+        <v>886.0519938145312</v>
       </c>
       <c r="G23" t="n">
-        <v>91.24912863776883</v>
+        <v>474.5115314151495</v>
       </c>
       <c r="H23" t="n">
-        <v>91.24912863776883</v>
+        <v>167.0427903212097</v>
       </c>
       <c r="I23" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J23" t="n">
         <v>370.8489686220844</v>
@@ -5998,43 +5998,43 @@
         <v>1676.322205681833</v>
       </c>
       <c r="M23" t="n">
-        <v>2501.514857774234</v>
+        <v>2046.974353752647</v>
       </c>
       <c r="N23" t="n">
-        <v>3313.03550789364</v>
+        <v>2858.495003872054</v>
       </c>
       <c r="O23" t="n">
-        <v>4020.973818504403</v>
+        <v>3566.433314482817</v>
       </c>
       <c r="P23" t="n">
-        <v>4533.807007124496</v>
+        <v>4143.26615730332</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.456431888441</v>
+        <v>4499.814853642422</v>
       </c>
       <c r="R23" t="n">
-        <v>4562.456431888441</v>
+        <v>4562.456431888439</v>
       </c>
       <c r="S23" t="n">
-        <v>4432.910881133209</v>
+        <v>4432.910881133206</v>
       </c>
       <c r="T23" t="n">
-        <v>4216.511866793098</v>
+        <v>4216.511866793096</v>
       </c>
       <c r="U23" t="n">
-        <v>3960.888920676706</v>
+        <v>3960.888920676703</v>
       </c>
       <c r="V23" t="n">
-        <v>3618.782111380225</v>
+        <v>3960.888920676703</v>
       </c>
       <c r="W23" t="n">
-        <v>3247.783076348512</v>
+        <v>3670.58464730615</v>
       </c>
       <c r="X23" t="n">
-        <v>2858.330471281569</v>
+        <v>3281.132042239206</v>
       </c>
       <c r="Y23" t="n">
-        <v>2461.83976220217</v>
+        <v>2884.641333159807</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3087.082472526497</v>
+        <v>851.4788209011606</v>
       </c>
       <c r="C24" t="n">
-        <v>2936.42824208659</v>
+        <v>700.8245904612528</v>
       </c>
       <c r="D24" t="n">
-        <v>2806.33927470807</v>
+        <v>570.7356230827331</v>
       </c>
       <c r="E24" t="n">
-        <v>2669.892783818958</v>
+        <v>434.2891321936209</v>
       </c>
       <c r="F24" t="n">
-        <v>2545.46097770209</v>
+        <v>309.8573260767527</v>
       </c>
       <c r="G24" t="n">
-        <v>2426.269163112463</v>
+        <v>190.6655114871263</v>
       </c>
       <c r="H24" t="n">
-        <v>2346.354831587612</v>
+        <v>110.7511799622758</v>
       </c>
       <c r="I24" t="n">
-        <v>2326.852780263105</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J24" t="n">
-        <v>2326.852780263105</v>
+        <v>284.7394463071446</v>
       </c>
       <c r="K24" t="n">
-        <v>2708.698227076234</v>
+        <v>741.8528426478961</v>
       </c>
       <c r="L24" t="n">
-        <v>3376.980945509473</v>
+        <v>1014.956135303647</v>
       </c>
       <c r="M24" t="n">
-        <v>4220.308192783719</v>
+        <v>1139.048482122393</v>
       </c>
       <c r="N24" t="n">
-        <v>4357.050513969691</v>
+        <v>1275.790803308365</v>
       </c>
       <c r="O24" t="n">
-        <v>4467.700156194833</v>
+        <v>1386.440445533507</v>
       </c>
       <c r="P24" t="n">
-        <v>4543.939756067154</v>
+        <v>1954.513945293347</v>
       </c>
       <c r="Q24" t="n">
-        <v>4562.456431888441</v>
+        <v>2297.473984293879</v>
       </c>
       <c r="R24" t="n">
-        <v>4562.456431888441</v>
+        <v>2326.852780263104</v>
       </c>
       <c r="S24" t="n">
-        <v>4443.648536097899</v>
+        <v>2208.044884472561</v>
       </c>
       <c r="T24" t="n">
-        <v>4270.163386876148</v>
+        <v>2034.55973525081</v>
       </c>
       <c r="U24" t="n">
-        <v>4060.157349037587</v>
+        <v>1824.553697412249</v>
       </c>
       <c r="V24" t="n">
-        <v>3837.617347408654</v>
+        <v>1602.013695783316</v>
       </c>
       <c r="W24" t="n">
-        <v>3607.50010154194</v>
+        <v>1371.896449916603</v>
       </c>
       <c r="X24" t="n">
-        <v>3418.193023891952</v>
+        <v>1182.589372266615</v>
       </c>
       <c r="Y24" t="n">
-        <v>3238.878806967459</v>
+        <v>1003.275155342122</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.24912863776883</v>
+        <v>720.7431190351422</v>
       </c>
       <c r="C25" t="n">
-        <v>91.24912863776883</v>
+        <v>720.7431190351422</v>
       </c>
       <c r="D25" t="n">
-        <v>91.24912863776883</v>
+        <v>565.110005937657</v>
       </c>
       <c r="E25" t="n">
-        <v>91.24912863776883</v>
+        <v>565.110005937657</v>
       </c>
       <c r="F25" t="n">
-        <v>91.24912863776883</v>
+        <v>407.78407115063</v>
       </c>
       <c r="G25" t="n">
-        <v>91.24912863776883</v>
+        <v>240.2577220909596</v>
       </c>
       <c r="H25" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="I25" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J25" t="n">
-        <v>111.9002885190533</v>
+        <v>111.9002885190532</v>
       </c>
       <c r="K25" t="n">
         <v>276.5989343195013</v>
@@ -6159,7 +6159,7 @@
         <v>844.8560654256914</v>
       </c>
       <c r="N25" t="n">
-        <v>1137.188348733527</v>
+        <v>1137.188348733528</v>
       </c>
       <c r="O25" t="n">
         <v>1400.704017631886</v>
@@ -6174,25 +6174,25 @@
         <v>1669.986265506743</v>
       </c>
       <c r="S25" t="n">
-        <v>1615.760125564543</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.150358052918</v>
+        <v>1555.451965049918</v>
       </c>
       <c r="U25" t="n">
-        <v>1097.75125928614</v>
+        <v>1270.05286628314</v>
       </c>
       <c r="V25" t="n">
-        <v>831.7719141069647</v>
+        <v>1004.073521103965</v>
       </c>
       <c r="W25" t="n">
-        <v>548.4415120381424</v>
+        <v>720.7431190351422</v>
       </c>
       <c r="X25" t="n">
-        <v>314.3611898211255</v>
+        <v>720.7431190351422</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.24912863776883</v>
+        <v>720.7431190351422</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2316.967962607165</v>
+        <v>2176.677846354471</v>
       </c>
       <c r="C26" t="n">
-        <v>1923.792461110096</v>
+        <v>1783.502344857401</v>
       </c>
       <c r="D26" t="n">
-        <v>1538.351332326763</v>
+        <v>1398.061216074069</v>
       </c>
       <c r="E26" t="n">
-        <v>1135.767807443308</v>
+        <v>995.4776911906137</v>
       </c>
       <c r="F26" t="n">
-        <v>718.8733689732857</v>
+        <v>578.5832527205914</v>
       </c>
       <c r="G26" t="n">
-        <v>474.5115314151495</v>
+        <v>167.0427903212097</v>
       </c>
       <c r="H26" t="n">
         <v>167.0427903212097</v>
       </c>
       <c r="I26" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J26" t="n">
-        <v>306.8493144216735</v>
+        <v>370.8489686220844</v>
       </c>
       <c r="K26" t="n">
-        <v>868.0868387992265</v>
+        <v>932.0864929996374</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.322551481422</v>
+        <v>1676.322205681833</v>
       </c>
       <c r="M26" t="n">
-        <v>2437.515203573823</v>
+        <v>2046.974353752647</v>
       </c>
       <c r="N26" t="n">
-        <v>3249.035853693229</v>
+        <v>2858.495003872054</v>
       </c>
       <c r="O26" t="n">
-        <v>3956.974164303992</v>
+        <v>3566.433314482817</v>
       </c>
       <c r="P26" t="n">
-        <v>4533.807007124496</v>
+        <v>4143.26615730332</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.456431888441</v>
+        <v>4499.814853642422</v>
       </c>
       <c r="R26" t="n">
-        <v>4562.456431888441</v>
+        <v>4562.456431888439</v>
       </c>
       <c r="S26" t="n">
-        <v>4432.910881133209</v>
+        <v>4432.910881133206</v>
       </c>
       <c r="T26" t="n">
-        <v>4216.511866793098</v>
+        <v>4216.511866793096</v>
       </c>
       <c r="U26" t="n">
-        <v>4216.511866793098</v>
+        <v>4076.221750540404</v>
       </c>
       <c r="V26" t="n">
-        <v>3874.405057496617</v>
+        <v>3734.114941243922</v>
       </c>
       <c r="W26" t="n">
-        <v>3503.406022464904</v>
+        <v>3363.11590621221</v>
       </c>
       <c r="X26" t="n">
-        <v>3113.953417397961</v>
+        <v>2973.663301145266</v>
       </c>
       <c r="Y26" t="n">
-        <v>2717.462708318562</v>
+        <v>2577.172592065867</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>851.4788209011608</v>
+        <v>851.4788209011606</v>
       </c>
       <c r="C27" t="n">
-        <v>700.824590461253</v>
+        <v>700.8245904612528</v>
       </c>
       <c r="D27" t="n">
-        <v>570.7356230827334</v>
+        <v>570.7356230827331</v>
       </c>
       <c r="E27" t="n">
-        <v>434.289132193621</v>
+        <v>434.2891321936209</v>
       </c>
       <c r="F27" t="n">
-        <v>309.8573260767528</v>
+        <v>309.8573260767527</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6655114871264</v>
+        <v>190.6655114871263</v>
       </c>
       <c r="H27" t="n">
         <v>110.7511799622758</v>
       </c>
       <c r="I27" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J27" t="n">
-        <v>91.24912863776883</v>
+        <v>284.7394463071446</v>
       </c>
       <c r="K27" t="n">
-        <v>139.9224129362939</v>
+        <v>741.8528426478961</v>
       </c>
       <c r="L27" t="n">
-        <v>808.2051313695334</v>
+        <v>1014.956135303647</v>
       </c>
       <c r="M27" t="n">
-        <v>1651.532378643779</v>
+        <v>1139.048482122393</v>
       </c>
       <c r="N27" t="n">
-        <v>1788.274699829751</v>
+        <v>1275.790803308365</v>
       </c>
       <c r="O27" t="n">
-        <v>1898.924342054893</v>
+        <v>1386.440445533507</v>
       </c>
       <c r="P27" t="n">
-        <v>2308.336104441817</v>
+        <v>1954.513945293347</v>
       </c>
       <c r="Q27" t="n">
-        <v>2326.852780263104</v>
+        <v>2297.473984293879</v>
       </c>
       <c r="R27" t="n">
         <v>2326.852780263104</v>
@@ -6335,7 +6335,7 @@
         <v>2208.044884472561</v>
       </c>
       <c r="T27" t="n">
-        <v>2034.559735250811</v>
+        <v>2034.55973525081</v>
       </c>
       <c r="U27" t="n">
         <v>1824.553697412249</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3213.822911749782</v>
+        <v>1046.50704910995</v>
       </c>
       <c r="C28" t="n">
-        <v>3213.822911749782</v>
+        <v>876.3019311759397</v>
       </c>
       <c r="D28" t="n">
-        <v>3213.822911749782</v>
+        <v>720.6688180784545</v>
       </c>
       <c r="E28" t="n">
-        <v>3213.822911749782</v>
+        <v>565.110005937657</v>
       </c>
       <c r="F28" t="n">
-        <v>3213.822911749782</v>
+        <v>407.78407115063</v>
       </c>
       <c r="G28" t="n">
-        <v>3213.822911749782</v>
+        <v>240.2577220909596</v>
       </c>
       <c r="H28" t="n">
-        <v>3094.929651167437</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="I28" t="n">
-        <v>2983.719295019467</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J28" t="n">
-        <v>3004.370454900751</v>
+        <v>111.9002885190532</v>
       </c>
       <c r="K28" t="n">
-        <v>3169.069100701199</v>
+        <v>276.5989343195013</v>
       </c>
       <c r="L28" t="n">
-        <v>3439.233625638265</v>
+        <v>546.7634592565669</v>
       </c>
       <c r="M28" t="n">
-        <v>3737.326231807389</v>
+        <v>844.8560654256914</v>
       </c>
       <c r="N28" t="n">
-        <v>4029.658515115225</v>
+        <v>1137.188348733528</v>
       </c>
       <c r="O28" t="n">
-        <v>4293.174184013584</v>
+        <v>1400.704017631886</v>
       </c>
       <c r="P28" t="n">
-        <v>4499.311491949982</v>
+        <v>1606.841325568284</v>
       </c>
       <c r="Q28" t="n">
-        <v>4562.456431888441</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="R28" t="n">
-        <v>4471.275698366589</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="S28" t="n">
-        <v>4281.141525276183</v>
+        <v>1479.852092416336</v>
       </c>
       <c r="T28" t="n">
-        <v>4048.531757764558</v>
+        <v>1247.242324904712</v>
       </c>
       <c r="U28" t="n">
-        <v>3763.13265899778</v>
+        <v>1247.242324904712</v>
       </c>
       <c r="V28" t="n">
-        <v>3497.153313818604</v>
+        <v>1247.242324904712</v>
       </c>
       <c r="W28" t="n">
-        <v>3213.822911749782</v>
+        <v>1247.242324904712</v>
       </c>
       <c r="X28" t="n">
-        <v>3213.822911749782</v>
+        <v>1247.242324904712</v>
       </c>
       <c r="Y28" t="n">
-        <v>3213.822911749782</v>
+        <v>1231.715067801252</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2061.345016490773</v>
+        <v>2408.35292576497</v>
       </c>
       <c r="C29" t="n">
-        <v>1668.169514993704</v>
+        <v>2015.1774242679</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.728386210371</v>
+        <v>1629.736295484568</v>
       </c>
       <c r="E29" t="n">
-        <v>880.1448613269158</v>
+        <v>1227.152770601112</v>
       </c>
       <c r="F29" t="n">
-        <v>463.2504228568936</v>
+        <v>810.2583321310904</v>
       </c>
       <c r="G29" t="n">
-        <v>167.0427903212097</v>
+        <v>398.7178697317086</v>
       </c>
       <c r="H29" t="n">
-        <v>167.0427903212097</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="I29" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J29" t="n">
         <v>370.8489686220844</v>
@@ -6472,43 +6472,43 @@
         <v>1676.322205681833</v>
       </c>
       <c r="M29" t="n">
-        <v>2501.514857774234</v>
+        <v>2046.974353752647</v>
       </c>
       <c r="N29" t="n">
-        <v>3313.03550789364</v>
+        <v>2858.495003872054</v>
       </c>
       <c r="O29" t="n">
-        <v>4020.973818504403</v>
+        <v>3566.433314482817</v>
       </c>
       <c r="P29" t="n">
-        <v>4533.807007124496</v>
+        <v>4143.26615730332</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.456431888441</v>
+        <v>4499.814853642422</v>
       </c>
       <c r="R29" t="n">
-        <v>4562.456431888441</v>
+        <v>4562.456431888439</v>
       </c>
       <c r="S29" t="n">
-        <v>4432.910881133209</v>
+        <v>4432.910881133206</v>
       </c>
       <c r="T29" t="n">
-        <v>4216.511866793098</v>
+        <v>4216.511866793096</v>
       </c>
       <c r="U29" t="n">
-        <v>3960.888920676706</v>
+        <v>4216.511866793096</v>
       </c>
       <c r="V29" t="n">
-        <v>3618.782111380225</v>
+        <v>3874.405057496614</v>
       </c>
       <c r="W29" t="n">
-        <v>3247.783076348512</v>
+        <v>3594.790985622709</v>
       </c>
       <c r="X29" t="n">
-        <v>2858.330471281569</v>
+        <v>3205.338380555766</v>
       </c>
       <c r="Y29" t="n">
-        <v>2461.83976220217</v>
+        <v>2808.847671476366</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>851.4788209011608</v>
+        <v>851.4788209011606</v>
       </c>
       <c r="C30" t="n">
-        <v>700.824590461253</v>
+        <v>700.8245904612528</v>
       </c>
       <c r="D30" t="n">
-        <v>570.7356230827334</v>
+        <v>570.7356230827331</v>
       </c>
       <c r="E30" t="n">
-        <v>434.289132193621</v>
+        <v>434.2891321936209</v>
       </c>
       <c r="F30" t="n">
-        <v>309.8573260767528</v>
+        <v>309.8573260767527</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6655114871264</v>
+        <v>190.6655114871263</v>
       </c>
       <c r="H30" t="n">
         <v>110.7511799622758</v>
       </c>
       <c r="I30" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J30" t="n">
-        <v>91.24912863776883</v>
+        <v>284.7394463071446</v>
       </c>
       <c r="K30" t="n">
-        <v>139.9224129362939</v>
+        <v>741.8528426478961</v>
       </c>
       <c r="L30" t="n">
-        <v>512.0348655124714</v>
+        <v>1014.956135303647</v>
       </c>
       <c r="M30" t="n">
-        <v>636.1272123312173</v>
+        <v>1139.048482122393</v>
       </c>
       <c r="N30" t="n">
-        <v>1513.165896453373</v>
+        <v>1275.790803308365</v>
       </c>
       <c r="O30" t="n">
-        <v>2232.096504569496</v>
+        <v>1386.440445533507</v>
       </c>
       <c r="P30" t="n">
-        <v>2308.336104441817</v>
+        <v>1954.513945293347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2326.852780263104</v>
+        <v>2297.473984293879</v>
       </c>
       <c r="R30" t="n">
         <v>2326.852780263104</v>
@@ -6572,7 +6572,7 @@
         <v>2208.044884472561</v>
       </c>
       <c r="T30" t="n">
-        <v>2034.559735250811</v>
+        <v>2034.55973525081</v>
       </c>
       <c r="U30" t="n">
         <v>1824.553697412249</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>478.2761161670697</v>
+        <v>149.5594607344882</v>
       </c>
       <c r="C31" t="n">
-        <v>308.070998233059</v>
+        <v>149.5594607344882</v>
       </c>
       <c r="D31" t="n">
-        <v>248.5750634247959</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="E31" t="n">
-        <v>248.5750634247959</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="F31" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="G31" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="H31" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="I31" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J31" t="n">
-        <v>111.9002885190533</v>
+        <v>111.9002885190532</v>
       </c>
       <c r="K31" t="n">
         <v>276.5989343195013</v>
@@ -6633,7 +6633,7 @@
         <v>844.8560654256914</v>
       </c>
       <c r="N31" t="n">
-        <v>1137.188348733527</v>
+        <v>1137.188348733528</v>
       </c>
       <c r="O31" t="n">
         <v>1400.704017631886</v>
@@ -6645,28 +6645,28 @@
         <v>1669.986265506743</v>
       </c>
       <c r="R31" t="n">
-        <v>1669.986265506743</v>
+        <v>1578.805531984891</v>
       </c>
       <c r="S31" t="n">
-        <v>1669.986265506743</v>
+        <v>1388.671358894484</v>
       </c>
       <c r="T31" t="n">
-        <v>1669.986265506743</v>
+        <v>1156.06159138286</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.986265506743</v>
+        <v>1156.06159138286</v>
       </c>
       <c r="V31" t="n">
-        <v>1404.006920327567</v>
+        <v>890.0822462036841</v>
       </c>
       <c r="W31" t="n">
-        <v>1120.676518258745</v>
+        <v>606.7518441348618</v>
       </c>
       <c r="X31" t="n">
-        <v>886.5961960417277</v>
+        <v>372.6715219178449</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.484134858371</v>
+        <v>149.5594607344882</v>
       </c>
     </row>
     <row r="32">
@@ -6694,43 +6694,43 @@
         <v>398.7178697317086</v>
       </c>
       <c r="H32" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="I32" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J32" t="n">
-        <v>370.8489686220844</v>
+        <v>109.6961561503337</v>
       </c>
       <c r="K32" t="n">
-        <v>932.0864929996374</v>
+        <v>670.9336805278867</v>
       </c>
       <c r="L32" t="n">
-        <v>1221.781701660249</v>
+        <v>1415.169393210082</v>
       </c>
       <c r="M32" t="n">
-        <v>2046.97435375265</v>
+        <v>2240.362045302483</v>
       </c>
       <c r="N32" t="n">
-        <v>2858.495003872056</v>
+        <v>3051.88269542189</v>
       </c>
       <c r="O32" t="n">
-        <v>3566.43331448282</v>
+        <v>3629.074892728833</v>
       </c>
       <c r="P32" t="n">
-        <v>4143.266157303323</v>
+        <v>4205.907735549336</v>
       </c>
       <c r="Q32" t="n">
-        <v>4499.814853642425</v>
+        <v>4562.456431888439</v>
       </c>
       <c r="R32" t="n">
-        <v>4562.456431888441</v>
+        <v>4562.456431888439</v>
       </c>
       <c r="S32" t="n">
-        <v>4562.456431888441</v>
+        <v>4562.456431888439</v>
       </c>
       <c r="T32" t="n">
-        <v>4346.057417548331</v>
+        <v>4346.057417548328</v>
       </c>
       <c r="U32" t="n">
         <v>4307.896829950903</v>
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>851.4788209011608</v>
+        <v>851.4788209011606</v>
       </c>
       <c r="C33" t="n">
-        <v>700.824590461253</v>
+        <v>700.8245904612528</v>
       </c>
       <c r="D33" t="n">
-        <v>570.7356230827334</v>
+        <v>570.7356230827331</v>
       </c>
       <c r="E33" t="n">
-        <v>434.289132193621</v>
+        <v>434.2891321936209</v>
       </c>
       <c r="F33" t="n">
-        <v>309.8573260767528</v>
+        <v>309.8573260767527</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6655114871264</v>
+        <v>190.6655114871263</v>
       </c>
       <c r="H33" t="n">
         <v>110.7511799622758</v>
       </c>
       <c r="I33" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J33" t="n">
-        <v>91.24912863776883</v>
+        <v>284.7394463071446</v>
       </c>
       <c r="K33" t="n">
-        <v>139.9224129362939</v>
+        <v>741.8528426478961</v>
       </c>
       <c r="L33" t="n">
-        <v>512.0348655124714</v>
+        <v>1014.956135303647</v>
       </c>
       <c r="M33" t="n">
-        <v>636.1272123312173</v>
+        <v>1139.048482122393</v>
       </c>
       <c r="N33" t="n">
-        <v>1513.165896453373</v>
+        <v>1275.790803308365</v>
       </c>
       <c r="O33" t="n">
-        <v>2232.096504569496</v>
+        <v>1386.440445533507</v>
       </c>
       <c r="P33" t="n">
-        <v>2308.336104441817</v>
+        <v>1954.513945293347</v>
       </c>
       <c r="Q33" t="n">
-        <v>2326.852780263104</v>
+        <v>2297.473984293879</v>
       </c>
       <c r="R33" t="n">
         <v>2326.852780263104</v>
@@ -6809,7 +6809,7 @@
         <v>2208.044884472561</v>
       </c>
       <c r="T33" t="n">
-        <v>2034.559735250811</v>
+        <v>2034.55973525081</v>
       </c>
       <c r="U33" t="n">
         <v>1824.553697412249</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>261.4542465717796</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="C34" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="D34" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="E34" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="F34" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="G34" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="H34" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="I34" t="n">
-        <v>91.24912863776883</v>
+        <v>91.24912863776878</v>
       </c>
       <c r="J34" t="n">
-        <v>111.9002885190533</v>
+        <v>111.9002885190532</v>
       </c>
       <c r="K34" t="n">
         <v>276.5989343195013</v>
@@ -6870,7 +6870,7 @@
         <v>844.8560654256914</v>
       </c>
       <c r="N34" t="n">
-        <v>1137.188348733527</v>
+        <v>1137.188348733528</v>
       </c>
       <c r="O34" t="n">
         <v>1400.704017631886</v>
@@ -6888,22 +6888,22 @@
         <v>1669.986265506743</v>
       </c>
       <c r="T34" t="n">
-        <v>1669.986265506743</v>
+        <v>1437.376497995118</v>
       </c>
       <c r="U34" t="n">
-        <v>1384.587166739965</v>
+        <v>1282.959277977442</v>
       </c>
       <c r="V34" t="n">
-        <v>1118.607821560789</v>
+        <v>1016.979932798266</v>
       </c>
       <c r="W34" t="n">
-        <v>835.2774194919666</v>
+        <v>733.6495307294437</v>
       </c>
       <c r="X34" t="n">
-        <v>601.1970972749497</v>
+        <v>499.5692085124267</v>
       </c>
       <c r="Y34" t="n">
-        <v>378.085036091593</v>
+        <v>276.45714732907</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>752.6833467899996</v>
+        <v>1584.111731165684</v>
       </c>
       <c r="C35" t="n">
-        <v>752.6833467899996</v>
+        <v>1584.111731165684</v>
       </c>
       <c r="D35" t="n">
-        <v>367.2422180066674</v>
+        <v>1584.111731165684</v>
       </c>
       <c r="E35" t="n">
-        <v>367.2422180066674</v>
+        <v>1181.528206282228</v>
       </c>
       <c r="F35" t="n">
-        <v>367.2422180066674</v>
+        <v>764.6337678122059</v>
       </c>
       <c r="G35" t="n">
-        <v>45.6245643188844</v>
+        <v>353.0933054128242</v>
       </c>
       <c r="H35" t="n">
         <v>45.6245643188844</v>
@@ -6937,28 +6937,28 @@
         <v>45.6245643188844</v>
       </c>
       <c r="J35" t="n">
-        <v>64.0715918314493</v>
+        <v>325.2244043032001</v>
       </c>
       <c r="K35" t="n">
-        <v>124.6989410340954</v>
+        <v>886.4619286807531</v>
       </c>
       <c r="L35" t="n">
-        <v>689.30292448029</v>
+        <v>985.6616616112329</v>
       </c>
       <c r="M35" t="n">
-        <v>1253.906907926485</v>
+        <v>1116.625612577303</v>
       </c>
       <c r="N35" t="n">
-        <v>1608.127889813614</v>
+        <v>1252.707672634842</v>
       </c>
       <c r="O35" t="n">
-        <v>2172.731873259809</v>
+        <v>1372.538183303421</v>
       </c>
       <c r="P35" t="n">
-        <v>2252.578791180274</v>
+        <v>1862.037941359101</v>
       </c>
       <c r="Q35" t="n">
-        <v>2281.22821594422</v>
+        <v>2218.586637698203</v>
       </c>
       <c r="R35" t="n">
         <v>2281.22821594422</v>
@@ -6967,22 +6967,22 @@
         <v>2281.22821594422</v>
       </c>
       <c r="T35" t="n">
-        <v>2281.22821594422</v>
+        <v>2064.829201604109</v>
       </c>
       <c r="U35" t="n">
-        <v>2281.22821594422</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="V35" t="n">
-        <v>1939.121406647739</v>
+        <v>1584.111731165684</v>
       </c>
       <c r="W35" t="n">
-        <v>1939.121406647739</v>
+        <v>1584.111731165684</v>
       </c>
       <c r="X35" t="n">
-        <v>1549.668801580795</v>
+        <v>1584.111731165684</v>
       </c>
       <c r="Y35" t="n">
-        <v>1153.178092501397</v>
+        <v>1584.111731165684</v>
       </c>
     </row>
     <row r="36">
@@ -6992,61 +6992,61 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>805.8542565822763</v>
+        <v>805.8542565822768</v>
       </c>
       <c r="C36" t="n">
-        <v>655.2000261423685</v>
+        <v>655.200026142369</v>
       </c>
       <c r="D36" t="n">
-        <v>525.1110587638489</v>
+        <v>525.1110587638493</v>
       </c>
       <c r="E36" t="n">
-        <v>388.6645678747366</v>
+        <v>388.664567874737</v>
       </c>
       <c r="F36" t="n">
-        <v>264.2327617578684</v>
+        <v>264.2327617578688</v>
       </c>
       <c r="G36" t="n">
         <v>145.0409471682419</v>
       </c>
       <c r="H36" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I36" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J36" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K36" t="n">
-        <v>94.29784861740944</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L36" t="n">
-        <v>189.8547377639867</v>
+        <v>972.8010872984089</v>
       </c>
       <c r="M36" t="n">
-        <v>754.4587212101812</v>
+        <v>1096.893434117155</v>
       </c>
       <c r="N36" t="n">
-        <v>1297.424593625171</v>
+        <v>1233.635755303127</v>
       </c>
       <c r="O36" t="n">
-        <v>1862.028577071366</v>
+        <v>1344.285397528269</v>
       </c>
       <c r="P36" t="n">
-        <v>1938.268176943687</v>
+        <v>1908.889380974463</v>
       </c>
       <c r="Q36" t="n">
-        <v>2281.228215944219</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R36" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S36" t="n">
-        <v>2162.420320153676</v>
+        <v>2162.420320153677</v>
       </c>
       <c r="T36" t="n">
-        <v>1988.935170931926</v>
+        <v>1988.935170931927</v>
       </c>
       <c r="U36" t="n">
         <v>1778.929133093365</v>
@@ -7058,10 +7058,10 @@
         <v>1326.271885597719</v>
       </c>
       <c r="X36" t="n">
-        <v>1136.96480794773</v>
+        <v>1136.964807947731</v>
       </c>
       <c r="Y36" t="n">
-        <v>957.6505910232377</v>
+        <v>957.6505910232381</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>45.6245643188844</v>
+        <v>215.8296822528952</v>
       </c>
       <c r="C37" t="n">
         <v>45.6245643188844</v>
@@ -7098,13 +7098,13 @@
         <v>66.27572420016885</v>
       </c>
       <c r="K37" t="n">
-        <v>230.9743700006168</v>
+        <v>230.9743700006169</v>
       </c>
       <c r="L37" t="n">
-        <v>501.1388949376825</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M37" t="n">
-        <v>799.2315011068071</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N37" t="n">
         <v>1091.563784414643</v>
@@ -7113,7 +7113,7 @@
         <v>1355.079453313002</v>
       </c>
       <c r="P37" t="n">
-        <v>1561.216761249399</v>
+        <v>1561.2167612494</v>
       </c>
       <c r="Q37" t="n">
         <v>1624.361701187858</v>
@@ -7122,25 +7122,25 @@
         <v>1624.361701187858</v>
       </c>
       <c r="S37" t="n">
-        <v>1434.227528097452</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="T37" t="n">
-        <v>1201.617760585827</v>
+        <v>1391.751933676234</v>
       </c>
       <c r="U37" t="n">
-        <v>916.2186618190492</v>
+        <v>1222.331812901267</v>
       </c>
       <c r="V37" t="n">
-        <v>650.2393166398734</v>
+        <v>956.3524677220912</v>
       </c>
       <c r="W37" t="n">
-        <v>366.9089145710511</v>
+        <v>673.0220656532688</v>
       </c>
       <c r="X37" t="n">
-        <v>132.8285923540342</v>
+        <v>438.9417434362518</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.6245643188844</v>
+        <v>215.8296822528952</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2055.259620352146</v>
+        <v>1408.71150977632</v>
       </c>
       <c r="C38" t="n">
-        <v>1662.084118855076</v>
+        <v>1408.71150977632</v>
       </c>
       <c r="D38" t="n">
-        <v>1276.642990071744</v>
+        <v>1408.71150977632</v>
       </c>
       <c r="E38" t="n">
-        <v>874.0594651882884</v>
+        <v>1006.127984892865</v>
       </c>
       <c r="F38" t="n">
-        <v>457.1650267182661</v>
+        <v>589.2335464228423</v>
       </c>
       <c r="G38" t="n">
-        <v>45.6245643188844</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="H38" t="n">
-        <v>45.6245643188844</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="I38" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J38" t="n">
-        <v>64.0715918314493</v>
+        <v>325.2244043032001</v>
       </c>
       <c r="K38" t="n">
-        <v>124.6989410340954</v>
+        <v>811.3577032902381</v>
       </c>
       <c r="L38" t="n">
-        <v>689.30292448029</v>
+        <v>910.5574362207179</v>
       </c>
       <c r="M38" t="n">
-        <v>1253.906907926485</v>
+        <v>1041.521387186788</v>
       </c>
       <c r="N38" t="n">
-        <v>1389.988967984023</v>
+        <v>1177.603447244327</v>
       </c>
       <c r="O38" t="n">
-        <v>1954.592951430217</v>
+        <v>1297.433957912906</v>
       </c>
       <c r="P38" t="n">
-        <v>2189.937212934258</v>
+        <v>1862.037941359101</v>
       </c>
       <c r="Q38" t="n">
-        <v>2218.586637698204</v>
+        <v>2218.586637698203</v>
       </c>
       <c r="R38" t="n">
         <v>2281.22821594422</v>
@@ -7204,22 +7204,22 @@
         <v>2281.22821594422</v>
       </c>
       <c r="T38" t="n">
-        <v>2281.22821594422</v>
+        <v>2064.829201604109</v>
       </c>
       <c r="U38" t="n">
-        <v>2281.22821594422</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="V38" t="n">
-        <v>2281.22821594422</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="W38" t="n">
-        <v>2281.22821594422</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="X38" t="n">
-        <v>2281.22821594422</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="Y38" t="n">
-        <v>2055.259620352146</v>
+        <v>1809.206255487717</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>805.8542565822768</v>
+        <v>805.8542565822763</v>
       </c>
       <c r="C39" t="n">
-        <v>655.2000261423689</v>
+        <v>655.2000261423685</v>
       </c>
       <c r="D39" t="n">
-        <v>525.1110587638493</v>
+        <v>525.1110587638489</v>
       </c>
       <c r="E39" t="n">
-        <v>388.664567874737</v>
+        <v>388.6645678747365</v>
       </c>
       <c r="F39" t="n">
-        <v>264.2327617578687</v>
+        <v>264.2327617578683</v>
       </c>
       <c r="G39" t="n">
-        <v>145.0409471682423</v>
+        <v>145.0409471682419</v>
       </c>
       <c r="H39" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I39" t="n">
         <v>45.6245643188844</v>
@@ -7259,31 +7259,31 @@
         <v>696.2282783290118</v>
       </c>
       <c r="L39" t="n">
-        <v>1260.832261775206</v>
+        <v>972.8010872984084</v>
       </c>
       <c r="M39" t="n">
-        <v>1384.924608593952</v>
+        <v>1096.893434117154</v>
       </c>
       <c r="N39" t="n">
-        <v>1521.666929779924</v>
+        <v>1233.635755303126</v>
       </c>
       <c r="O39" t="n">
-        <v>1698.107556676739</v>
+        <v>1344.285397528268</v>
       </c>
       <c r="P39" t="n">
-        <v>2262.711540122933</v>
+        <v>1908.889380974462</v>
       </c>
       <c r="Q39" t="n">
-        <v>2281.22821594422</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R39" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="S39" t="n">
-        <v>2162.420320153677</v>
+        <v>2162.420320153676</v>
       </c>
       <c r="T39" t="n">
-        <v>1988.935170931927</v>
+        <v>1988.935170931926</v>
       </c>
       <c r="U39" t="n">
         <v>1778.929133093365</v>
@@ -7295,10 +7295,10 @@
         <v>1326.271885597719</v>
       </c>
       <c r="X39" t="n">
-        <v>1136.964807947731</v>
+        <v>1136.96480794773</v>
       </c>
       <c r="Y39" t="n">
-        <v>957.6505910232381</v>
+        <v>957.6505910232377</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="C40" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="D40" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="E40" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="F40" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="G40" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="H40" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I40" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J40" t="n">
-        <v>723.1422389565309</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K40" t="n">
-        <v>887.840884756979</v>
+        <v>230.9743700006169</v>
       </c>
       <c r="L40" t="n">
-        <v>1158.005409694045</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M40" t="n">
-        <v>1456.098015863169</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N40" t="n">
-        <v>1748.430299171005</v>
+        <v>1091.563784414643</v>
       </c>
       <c r="O40" t="n">
-        <v>2011.945968069364</v>
+        <v>1355.079453313002</v>
       </c>
       <c r="P40" t="n">
-        <v>2218.083276005761</v>
+        <v>1561.2167612494</v>
       </c>
       <c r="Q40" t="n">
-        <v>2281.22821594422</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="R40" t="n">
-        <v>2281.22821594422</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S40" t="n">
-        <v>2281.22821594422</v>
+        <v>1434.227528097452</v>
       </c>
       <c r="T40" t="n">
-        <v>2179.600327181698</v>
+        <v>1337.525793734034</v>
       </c>
       <c r="U40" t="n">
-        <v>1894.20122841492</v>
+        <v>1052.126694967256</v>
       </c>
       <c r="V40" t="n">
-        <v>1628.221883235744</v>
+        <v>786.1473497880804</v>
       </c>
       <c r="W40" t="n">
-        <v>1344.891481166921</v>
+        <v>502.816947719258</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.811158949904</v>
+        <v>268.7366255022411</v>
       </c>
       <c r="Y40" t="n">
-        <v>887.6990977665478</v>
+        <v>45.6245643188844</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1880.733470232823</v>
+        <v>1276.642990071744</v>
       </c>
       <c r="C41" t="n">
-        <v>1584.111731165684</v>
+        <v>1276.642990071744</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.111731165684</v>
+        <v>1276.642990071744</v>
       </c>
       <c r="E41" t="n">
-        <v>1181.528206282228</v>
+        <v>874.0594651882884</v>
       </c>
       <c r="F41" t="n">
-        <v>764.6337678122059</v>
+        <v>457.1650267182661</v>
       </c>
       <c r="G41" t="n">
-        <v>353.0933054128242</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="H41" t="n">
         <v>45.6245643188844</v>
@@ -7411,28 +7411,28 @@
         <v>45.6245643188844</v>
       </c>
       <c r="J41" t="n">
-        <v>64.0715918314493</v>
+        <v>312.7617571587018</v>
       </c>
       <c r="K41" t="n">
-        <v>124.6989410340954</v>
+        <v>873.9992815362548</v>
       </c>
       <c r="L41" t="n">
-        <v>223.8986739645752</v>
+        <v>973.1990144667346</v>
       </c>
       <c r="M41" t="n">
-        <v>354.8626249306457</v>
+        <v>1104.162965432805</v>
       </c>
       <c r="N41" t="n">
-        <v>732.8299744667123</v>
+        <v>1240.245025490343</v>
       </c>
       <c r="O41" t="n">
-        <v>1297.433957912907</v>
+        <v>1360.075536158923</v>
       </c>
       <c r="P41" t="n">
-        <v>1862.037941359101</v>
+        <v>1924.679519605118</v>
       </c>
       <c r="Q41" t="n">
-        <v>2218.586637698204</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="R41" t="n">
         <v>2281.22821594422</v>
@@ -7444,19 +7444,19 @@
         <v>2281.22821594422</v>
       </c>
       <c r="U41" t="n">
-        <v>2281.22821594422</v>
+        <v>2062.586304218086</v>
       </c>
       <c r="V41" t="n">
-        <v>2281.22821594422</v>
+        <v>2062.586304218086</v>
       </c>
       <c r="W41" t="n">
-        <v>2281.22821594422</v>
+        <v>2062.586304218086</v>
       </c>
       <c r="X41" t="n">
-        <v>2281.22821594422</v>
+        <v>1673.133699151143</v>
       </c>
       <c r="Y41" t="n">
-        <v>2281.22821594422</v>
+        <v>1276.642990071744</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>805.8542565822772</v>
+        <v>805.8542565822768</v>
       </c>
       <c r="C42" t="n">
-        <v>655.2000261423693</v>
+        <v>655.2000261423689</v>
       </c>
       <c r="D42" t="n">
-        <v>525.1110587638495</v>
+        <v>525.1110587638491</v>
       </c>
       <c r="E42" t="n">
-        <v>388.6645678747373</v>
+        <v>388.6645678747368</v>
       </c>
       <c r="F42" t="n">
-        <v>264.232761757869</v>
+        <v>264.2327617578685</v>
       </c>
       <c r="G42" t="n">
-        <v>145.0409471682424</v>
+        <v>145.0409471682419</v>
       </c>
       <c r="H42" t="n">
-        <v>65.12661564339186</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I42" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J42" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K42" t="n">
-        <v>502.7379606596359</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L42" t="n">
-        <v>972.8010872984094</v>
+        <v>791.7851674755891</v>
       </c>
       <c r="M42" t="n">
-        <v>1096.893434117155</v>
+        <v>915.877514294335</v>
       </c>
       <c r="N42" t="n">
-        <v>1233.635755303127</v>
+        <v>1052.619835480307</v>
       </c>
       <c r="O42" t="n">
         <v>1344.285397528269</v>
@@ -7511,7 +7511,7 @@
         <v>1908.889380974463</v>
       </c>
       <c r="Q42" t="n">
-        <v>2251.849419974996</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R42" t="n">
         <v>2281.22821594422</v>
@@ -7523,19 +7523,19 @@
         <v>1988.935170931927</v>
       </c>
       <c r="U42" t="n">
-        <v>1778.929133093366</v>
+        <v>1778.929133093365</v>
       </c>
       <c r="V42" t="n">
-        <v>1556.389131464433</v>
+        <v>1556.389131464432</v>
       </c>
       <c r="W42" t="n">
-        <v>1326.27188559772</v>
+        <v>1326.271885597719</v>
       </c>
       <c r="X42" t="n">
         <v>1136.964807947731</v>
       </c>
       <c r="Y42" t="n">
-        <v>957.6505910232386</v>
+        <v>957.6505910232381</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>525.8477808266013</v>
+        <v>414.7023529659755</v>
       </c>
       <c r="C43" t="n">
-        <v>355.6426628925905</v>
+        <v>414.7023529659755</v>
       </c>
       <c r="D43" t="n">
-        <v>200.0095497951052</v>
+        <v>259.0692398684902</v>
       </c>
       <c r="E43" t="n">
-        <v>200.0095497951052</v>
+        <v>202.9504991059114</v>
       </c>
       <c r="F43" t="n">
-        <v>200.0095497951052</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="G43" t="n">
         <v>45.6245643188844</v>
@@ -7572,13 +7572,13 @@
         <v>66.27572420016885</v>
       </c>
       <c r="K43" t="n">
-        <v>230.9743700006168</v>
+        <v>230.9743700006169</v>
       </c>
       <c r="L43" t="n">
-        <v>501.1388949376825</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M43" t="n">
-        <v>799.2315011068071</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N43" t="n">
         <v>1091.563784414643</v>
@@ -7587,7 +7587,7 @@
         <v>1355.079453313002</v>
       </c>
       <c r="P43" t="n">
-        <v>1561.216761249399</v>
+        <v>1561.2167612494</v>
       </c>
       <c r="Q43" t="n">
         <v>1624.361701187858</v>
@@ -7596,25 +7596,25 @@
         <v>1624.361701187858</v>
       </c>
       <c r="S43" t="n">
-        <v>1434.227528097452</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="T43" t="n">
-        <v>1434.227528097452</v>
+        <v>1391.751933676234</v>
       </c>
       <c r="U43" t="n">
-        <v>1434.227528097452</v>
+        <v>1106.352834909456</v>
       </c>
       <c r="V43" t="n">
-        <v>1168.248182918276</v>
+        <v>1106.352834909456</v>
       </c>
       <c r="W43" t="n">
-        <v>1168.248182918276</v>
+        <v>823.0224328406334</v>
       </c>
       <c r="X43" t="n">
-        <v>934.1678607012592</v>
+        <v>823.0224328406334</v>
       </c>
       <c r="Y43" t="n">
-        <v>711.0557995179025</v>
+        <v>599.9103716572768</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2055.259620352146</v>
+        <v>764.6337678122059</v>
       </c>
       <c r="C44" t="n">
-        <v>1662.084118855076</v>
+        <v>764.6337678122059</v>
       </c>
       <c r="D44" t="n">
-        <v>1276.642990071744</v>
+        <v>764.6337678122059</v>
       </c>
       <c r="E44" t="n">
-        <v>874.0594651882884</v>
+        <v>764.6337678122059</v>
       </c>
       <c r="F44" t="n">
-        <v>457.1650267182661</v>
+        <v>764.6337678122059</v>
       </c>
       <c r="G44" t="n">
-        <v>45.62456431888439</v>
+        <v>353.0933054128242</v>
       </c>
       <c r="H44" t="n">
-        <v>45.62456431888439</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I44" t="n">
-        <v>45.62456431888439</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J44" t="n">
-        <v>325.2244043032</v>
+        <v>325.2244043032001</v>
       </c>
       <c r="K44" t="n">
-        <v>385.8517535058461</v>
+        <v>886.4619286807531</v>
       </c>
       <c r="L44" t="n">
-        <v>923.6933956988393</v>
+        <v>985.6616616112329</v>
       </c>
       <c r="M44" t="n">
-        <v>1488.297379145034</v>
+        <v>1116.625612577303</v>
       </c>
       <c r="N44" t="n">
-        <v>2052.901362591228</v>
+        <v>1252.707672634842</v>
       </c>
       <c r="O44" t="n">
-        <v>2172.731873259808</v>
+        <v>1372.538183303421</v>
       </c>
       <c r="P44" t="n">
-        <v>2252.578791180274</v>
+        <v>1924.679519605118</v>
       </c>
       <c r="Q44" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="R44" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S44" t="n">
-        <v>2281.228215944219</v>
+        <v>2151.682665188987</v>
       </c>
       <c r="T44" t="n">
-        <v>2281.228215944219</v>
+        <v>1935.283650848877</v>
       </c>
       <c r="U44" t="n">
-        <v>2281.228215944219</v>
+        <v>1679.660704732485</v>
       </c>
       <c r="V44" t="n">
-        <v>2281.228215944219</v>
+        <v>1679.660704732485</v>
       </c>
       <c r="W44" t="n">
-        <v>2281.228215944219</v>
+        <v>1308.661669700772</v>
       </c>
       <c r="X44" t="n">
-        <v>2281.228215944219</v>
+        <v>919.2090646338289</v>
       </c>
       <c r="Y44" t="n">
-        <v>2281.228215944219</v>
+        <v>764.6337678122059</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>805.8542565822765</v>
+        <v>805.8542565822762</v>
       </c>
       <c r="C45" t="n">
-        <v>655.2000261423688</v>
+        <v>655.2000261423684</v>
       </c>
       <c r="D45" t="n">
-        <v>525.1110587638491</v>
+        <v>525.1110587638489</v>
       </c>
       <c r="E45" t="n">
-        <v>388.6645678747368</v>
+        <v>388.6645678747366</v>
       </c>
       <c r="F45" t="n">
-        <v>264.2327617578686</v>
+        <v>264.2327617578683</v>
       </c>
       <c r="G45" t="n">
         <v>145.0409471682419</v>
@@ -7724,40 +7724,40 @@
         <v>65.12661564339139</v>
       </c>
       <c r="I45" t="n">
-        <v>45.62456431888439</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J45" t="n">
-        <v>45.62456431888439</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K45" t="n">
-        <v>502.7379606596359</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L45" t="n">
-        <v>843.2901092566016</v>
+        <v>972.8010872984089</v>
       </c>
       <c r="M45" t="n">
-        <v>967.3824560753475</v>
+        <v>1096.893434117155</v>
       </c>
       <c r="N45" t="n">
-        <v>1104.124777261319</v>
+        <v>1233.635755303127</v>
       </c>
       <c r="O45" t="n">
-        <v>1668.728760707514</v>
+        <v>1344.285397528269</v>
       </c>
       <c r="P45" t="n">
-        <v>2233.332744153708</v>
+        <v>1908.889380974463</v>
       </c>
       <c r="Q45" t="n">
         <v>2251.849419974995</v>
       </c>
       <c r="R45" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S45" t="n">
-        <v>2162.420320153676</v>
+        <v>2162.420320153677</v>
       </c>
       <c r="T45" t="n">
-        <v>1988.935170931926</v>
+        <v>1988.935170931927</v>
       </c>
       <c r="U45" t="n">
         <v>1778.929133093365</v>
@@ -7769,10 +7769,10 @@
         <v>1326.271885597719</v>
       </c>
       <c r="X45" t="n">
-        <v>1136.964807947731</v>
+        <v>1136.96480794773</v>
       </c>
       <c r="Y45" t="n">
-        <v>957.6505910232379</v>
+        <v>957.6505910232376</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>242.5173787577788</v>
+        <v>215.8296822528952</v>
       </c>
       <c r="C46" t="n">
-        <v>242.5173787577788</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="D46" t="n">
-        <v>242.5173787577788</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="E46" t="n">
-        <v>242.5173787577788</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="F46" t="n">
-        <v>85.19144397075178</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="G46" t="n">
-        <v>45.62456431888439</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="H46" t="n">
-        <v>45.62456431888439</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I46" t="n">
-        <v>45.62456431888439</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J46" t="n">
-        <v>66.27572420016884</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K46" t="n">
-        <v>230.9743700006168</v>
+        <v>230.9743700006169</v>
       </c>
       <c r="L46" t="n">
-        <v>501.1388949376825</v>
+        <v>501.1388949376826</v>
       </c>
       <c r="M46" t="n">
-        <v>799.2315011068071</v>
+        <v>799.2315011068072</v>
       </c>
       <c r="N46" t="n">
         <v>1091.563784414643</v>
@@ -7824,7 +7824,7 @@
         <v>1355.079453313002</v>
       </c>
       <c r="P46" t="n">
-        <v>1561.216761249399</v>
+        <v>1561.2167612494</v>
       </c>
       <c r="Q46" t="n">
         <v>1624.361701187858</v>
@@ -7836,22 +7836,22 @@
         <v>1434.227528097452</v>
       </c>
       <c r="T46" t="n">
-        <v>1434.227528097452</v>
+        <v>1201.617760585827</v>
       </c>
       <c r="U46" t="n">
-        <v>1434.227528097452</v>
+        <v>916.2186618190492</v>
       </c>
       <c r="V46" t="n">
-        <v>1168.248182918276</v>
+        <v>650.2393166398734</v>
       </c>
       <c r="W46" t="n">
-        <v>884.9177808494537</v>
+        <v>449.9100044699121</v>
       </c>
       <c r="X46" t="n">
-        <v>650.8374586324368</v>
+        <v>215.8296822528952</v>
       </c>
       <c r="Y46" t="n">
-        <v>427.7253974490801</v>
+        <v>215.8296822528952</v>
       </c>
     </row>
   </sheetData>
@@ -8692,28 +8692,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>22.97300759059965</v>
       </c>
       <c r="L11" t="n">
-        <v>363.3826077045845</v>
+        <v>470.1053035512267</v>
       </c>
       <c r="M11" t="n">
-        <v>438.020234828408</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>449.2661341188025</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>489.65360154114</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
-        <v>102.5176150018526</v>
+        <v>39.24329354122969</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>4.384509209319646</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>473.784943736987</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>444.9612491186348</v>
+        <v>444.9612491186347</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>260.8560229681504</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>493.2973571453266</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>41.33825342159543</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>470.1053035512268</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>438.020234828408</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>432.8504276653093</v>
       </c>
       <c r="O14" t="n">
-        <v>173.4837302752858</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>486.6071635570349</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>1.257249808435887</v>
+        <v>1.257249808435873</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>276.1883395745632</v>
+        <v>378.2891287799957</v>
       </c>
       <c r="M15" t="n">
-        <v>444.9612491186348</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>432.1834972325481</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>458.5397386071238</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>429.8039896812039</v>
       </c>
       <c r="L17" t="n">
-        <v>470.1053035512268</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>438.020234828408</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>432.8504276653093</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>489.6536015411401</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.4837302752863</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>1.257249808435887</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>276.1883395745632</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>444.9612491186348</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>432.1834972325481</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>458.5397386071238</v>
+        <v>182.8443634573937</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9403,25 +9403,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>413.7907476113273</v>
       </c>
       <c r="M20" t="n">
-        <v>438.020234828408</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>363.3826077045845</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>449.2661341188025</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>1.257249808435887</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,10 +9491,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>332.3151599124947</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>458.5397386071238</v>
+        <v>182.8443634573937</v>
       </c>
       <c r="P21" t="n">
         <v>493.2973571453266</v>
@@ -9646,7 +9646,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>242.1092900047918</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
@@ -9655,13 +9655,13 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>437.3598693935622</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
-        <v>39.2432935412297</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>1.257249808435887</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>336.5375378935389</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>179.3398015244182</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>41.33825342159545</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>199.1446043144846</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9883,7 +9883,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>701.2411122488187</v>
+        <v>242.1092900047918</v>
       </c>
       <c r="N26" t="n">
         <v>682.2612020826953</v>
@@ -9895,10 +9895,10 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>39.2432935412297</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>1.257249808435887</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>179.3398015244182</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>336.5375378935383</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>41.33825342159545</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>701.2411122488187</v>
+        <v>242.1092900047918</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
@@ -10129,13 +10129,13 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>437.3598693935622</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>39.2432935412297</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>1.257249808435887</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>279.3490539692932</v>
+        <v>179.3398015244182</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>41.33825342159545</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>192.4196724546785</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10363,7 +10363,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>461.9815016549126</v>
       </c>
       <c r="P32" t="n">
         <v>502.0059847475129</v>
@@ -10372,7 +10372,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>39.24329354122969</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>1.257249808435887</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>279.3490539692932</v>
+        <v>179.3398015244182</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>41.33825342159545</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>470.1053035512269</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>438.0202348284081</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>220.3423452824157</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>449.2661341188027</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>413.7907476113271</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>39.2432935412297</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>1.257249808435887</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>182.8443634573937</v>
       </c>
       <c r="M36" t="n">
-        <v>444.961249118635</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>410.3268194232509</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>458.5397386071239</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>41.33825342159545</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>429.8039896812039</v>
       </c>
       <c r="L38" t="n">
-        <v>470.1053035512269</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>438.0202348284081</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>449.2661341188027</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>157.0680238217931</v>
+        <v>489.6536015411401</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10907,7 +10907,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>473.7849437369871</v>
+        <v>182.8443634573933</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>66.4555400723972</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>493.2973571453267</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>41.33825342159545</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>251.202187199245</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>244.3285752308369</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>449.2661341188027</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>489.6536015411403</v>
+        <v>489.6536015411401</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>39.24329354122969</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>1.257249808435887</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>378.2891287799962</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>182.8443634573937</v>
       </c>
       <c r="P42" t="n">
-        <v>493.2973571453267</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11299,28 +11299,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>443.0726356187002</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>438.020234828408</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>432.8504276653093</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>477.06506907195</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>39.2432935412297</v>
+        <v>39.24329354122969</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>1.257249808435887</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>247.4699590407964</v>
+        <v>182.8443634573937</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>458.5397386071237</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>493.2973571453265</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23263,22 +23263,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7056411875089</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>128.2500952476802</v>
       </c>
       <c r="T11" t="n">
-        <v>214.2350241967096</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>208.6385187967343</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23430,13 +23430,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>112.1672070262961</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.518507518659</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.098252586491</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>90.26892618663325</v>
       </c>
       <c r="S13" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>230.5919691106942</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>78.64019671424364</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.4250577753879</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>75.03572506660649</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>174.6421913602711</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.4794455990187</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8510855690736</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.098252586491</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>90.26892618663325</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>96.89650962274143</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>143.5839600172429</v>
       </c>
       <c r="G17" t="n">
         <v>407.4250577753879</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>245.7926666299334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23940,7 +23940,7 @@
         <v>90.26892618663325</v>
       </c>
       <c r="S19" t="n">
-        <v>134.5489528167251</v>
+        <v>134.5489528167249</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>407.4250577753879</v>
+        <v>213.5791713865752</v>
       </c>
       <c r="H20" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>75.03572506660649</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>96.82533297953381</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>151.5550077455197</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>57.99044852043899</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H22" t="n">
-        <v>147.518507518659</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.098252586491</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>90.26892618663325</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>39.14377649845426</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>75.03572506660649</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>79.88781404454716</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.8510855690736</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.518507518659</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.098252586491</v>
@@ -24414,10 +24414,10 @@
         <v>90.26892618663325</v>
       </c>
       <c r="S25" t="n">
-        <v>134.5489528167247</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>116.894712384252</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>165.5068385928331</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0667166552282</v>
+        <v>114.1795015650633</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.8510855690736</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>29.81417954213813</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.098252586491</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>205.5089560390977</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>114.1795015650609</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>90.47111352622926</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>95.17580650632993</v>
+        <v>96.34955319075814</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>165.8510855690736</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5451077791103</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>215.2877349337751</v>
+        <v>215.2877349337779</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.89145687977302</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25128,10 +25128,10 @@
         <v>188.2328313595025</v>
       </c>
       <c r="T34" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>129.6720599616103</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.02358062448275</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>75.03572506660649</v>
@@ -25207,22 +25207,22 @@
         <v>128.2500952476802</v>
       </c>
       <c r="T35" t="n">
-        <v>214.2350241967096</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>115.8421621247036</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25362,13 +25362,13 @@
         <v>90.26892618663325</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.819188211893</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>134.5489528167248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>248.6819442420764</v>
       </c>
       <c r="H38" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>75.03572506660649</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>128.2500952476802</v>
       </c>
       <c r="T38" t="n">
-        <v>214.2350241967096</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25459,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>168.8168923524511</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25599,10 +25599,10 @@
         <v>90.26892618663325</v>
       </c>
       <c r="S40" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.672059961611</v>
+        <v>134.5489528167251</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>95.58822480563038</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I41" t="n">
         <v>75.03572506660649</v>
@@ -25684,7 +25684,7 @@
         <v>214.2350241967096</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0667166552282</v>
+        <v>36.61122404635569</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25693,10 +25693,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>98.44567066443651</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>13.00994994761504</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H43" t="n">
         <v>147.518507518659</v>
@@ -25836,22 +25836,22 @@
         <v>90.26892618663325</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T43" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172.7808886181301</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>75.03572506660649</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.2350241967096</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>239.4962581351981</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26034,10 +26034,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>126.6798747137249</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H46" t="n">
         <v>147.518507518659</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.17107899987244</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>512627.5347604015</v>
+        <v>512627.5347604014</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>512627.5347604014</v>
+        <v>512627.5347604015</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734097.6421232623</v>
+        <v>734097.6421232619</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734097.6421232624</v>
+        <v>734097.6421232618</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734097.6421232623</v>
+        <v>734097.6421232622</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734097.6421232623</v>
+        <v>734097.6421232619</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>512627.5347604016</v>
+        <v>512627.5347604013</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>512627.5347604012</v>
+        <v>512627.5347604015</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512627.5347604012</v>
+        <v>512627.5347604014</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>611657.3524700381</v>
+        <v>611657.3524700379</v>
       </c>
       <c r="C2" t="n">
-        <v>611657.3524700379</v>
+        <v>611657.3524700378</v>
       </c>
       <c r="D2" t="n">
-        <v>611657.3524700381</v>
+        <v>611657.352470038</v>
       </c>
       <c r="E2" t="n">
+        <v>405195.2459392698</v>
+      </c>
+      <c r="F2" t="n">
+        <v>405195.24593927</v>
+      </c>
+      <c r="G2" t="n">
         <v>405195.2459392699</v>
       </c>
-      <c r="F2" t="n">
-        <v>405195.2459392699</v>
-      </c>
-      <c r="G2" t="n">
-        <v>405195.2459392701</v>
-      </c>
       <c r="H2" t="n">
-        <v>405195.24593927</v>
+        <v>405195.2459392698</v>
       </c>
       <c r="I2" t="n">
+        <v>554943.5795775504</v>
+      </c>
+      <c r="J2" t="n">
         <v>554943.5795775506</v>
       </c>
-      <c r="J2" t="n">
-        <v>554943.5795775505</v>
-      </c>
       <c r="K2" t="n">
-        <v>554943.5795775505</v>
+        <v>554943.5795775502</v>
       </c>
       <c r="L2" t="n">
         <v>554943.5795775503</v>
       </c>
       <c r="M2" t="n">
-        <v>405195.24593927</v>
+        <v>405195.2459392698</v>
       </c>
       <c r="N2" t="n">
-        <v>405195.24593927</v>
+        <v>405195.2459392697</v>
       </c>
       <c r="O2" t="n">
-        <v>405195.24593927</v>
+        <v>405195.2459392698</v>
       </c>
       <c r="P2" t="n">
-        <v>405195.24593927</v>
+        <v>405195.2459392699</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151656.6221030258</v>
+        <v>151656.6221030257</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>84067.93092499915</v>
       </c>
       <c r="F4" t="n">
-        <v>84067.93092499916</v>
+        <v>84067.93092499918</v>
       </c>
       <c r="G4" t="n">
+        <v>84067.93092499915</v>
+      </c>
+      <c r="H4" t="n">
         <v>84067.93092499918</v>
       </c>
-      <c r="H4" t="n">
-        <v>84067.93092499915</v>
-      </c>
       <c r="I4" t="n">
-        <v>147250.6064909446</v>
+        <v>147250.6064909445</v>
       </c>
       <c r="J4" t="n">
-        <v>147250.6064909446</v>
+        <v>147250.6064909445</v>
       </c>
       <c r="K4" t="n">
-        <v>147250.6064909446</v>
+        <v>147250.6064909445</v>
       </c>
       <c r="L4" t="n">
-        <v>147250.6064909446</v>
+        <v>147250.6064909445</v>
       </c>
       <c r="M4" t="n">
         <v>84067.93092499918</v>
       </c>
       <c r="N4" t="n">
-        <v>84067.93092499919</v>
+        <v>84067.93092499915</v>
       </c>
       <c r="O4" t="n">
-        <v>84067.93092499919</v>
+        <v>84067.93092499916</v>
       </c>
       <c r="P4" t="n">
-        <v>84067.93092499913</v>
+        <v>84067.93092499918</v>
       </c>
     </row>
     <row r="5">
@@ -26481,25 +26481,25 @@
         <v>43383.98595902142</v>
       </c>
       <c r="F5" t="n">
-        <v>43383.98595902142</v>
+        <v>43383.98595902143</v>
       </c>
       <c r="G5" t="n">
-        <v>43383.98595902142</v>
+        <v>43383.98595902143</v>
       </c>
       <c r="H5" t="n">
-        <v>43383.98595902142</v>
+        <v>43383.98595902143</v>
       </c>
       <c r="I5" t="n">
-        <v>78058.65484137359</v>
+        <v>78058.65484137354</v>
       </c>
       <c r="J5" t="n">
-        <v>78058.65484137359</v>
+        <v>78058.65484137354</v>
       </c>
       <c r="K5" t="n">
-        <v>78058.65484137359</v>
+        <v>78058.65484137354</v>
       </c>
       <c r="L5" t="n">
-        <v>78058.65484137359</v>
+        <v>78058.65484137354</v>
       </c>
       <c r="M5" t="n">
         <v>43383.98595902143</v>
@@ -26511,7 +26511,7 @@
         <v>43383.98595902143</v>
       </c>
       <c r="P5" t="n">
-        <v>43383.98595902142</v>
+        <v>43383.98595902143</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200486.9167158923</v>
+        <v>200482.5871481056</v>
       </c>
       <c r="C6" t="n">
-        <v>200486.916715892</v>
+        <v>200482.5871481055</v>
       </c>
       <c r="D6" t="n">
-        <v>200486.9167158923</v>
+        <v>200482.5871481057</v>
       </c>
       <c r="E6" t="n">
-        <v>-213505.3090119702</v>
+        <v>-214116.8800695531</v>
       </c>
       <c r="F6" t="n">
-        <v>277743.3290552493</v>
+        <v>277131.7579976665</v>
       </c>
       <c r="G6" t="n">
-        <v>277743.3290552495</v>
+        <v>277131.7579976665</v>
       </c>
       <c r="H6" t="n">
-        <v>277743.3290552494</v>
+        <v>277131.7579976664</v>
       </c>
       <c r="I6" t="n">
-        <v>177977.6961422066</v>
+        <v>177806.5613600306</v>
       </c>
       <c r="J6" t="n">
-        <v>329634.3182452323</v>
+        <v>329463.1834630565</v>
       </c>
       <c r="K6" t="n">
-        <v>329634.3182452323</v>
+        <v>329463.183463056</v>
       </c>
       <c r="L6" t="n">
-        <v>329634.3182452321</v>
+        <v>329463.1834630562</v>
       </c>
       <c r="M6" t="n">
-        <v>277743.3290552493</v>
+        <v>277131.7579976664</v>
       </c>
       <c r="N6" t="n">
-        <v>277743.3290552494</v>
+        <v>277131.7579976664</v>
       </c>
       <c r="O6" t="n">
-        <v>277743.3290552493</v>
+        <v>277131.7579976664</v>
       </c>
       <c r="P6" t="n">
-        <v>277743.3290552494</v>
+        <v>277131.7579976665</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="F3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="G3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="H3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="I3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="J3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="K3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="L3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="M3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="N3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="O3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="P3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="F4" t="n">
         <v>570.3070539860549</v>
@@ -26822,16 +26822,16 @@
         <v>1140.61410797211</v>
       </c>
       <c r="M4" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="N4" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="O4" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="P4" t="n">
-        <v>570.3070539860548</v>
+        <v>570.3070539860549</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>399.5099576453799</v>
+        <v>399.50995764538</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>570.3070539860548</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>570.3070539860549</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>570.3070539860554</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H11" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I11" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J11" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K11" t="n">
         <v>204.2981498485769</v>
@@ -31788,10 +31788,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S11" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T11" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U11" t="n">
         <v>0.1284856145191171</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H12" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I12" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J12" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K12" t="n">
         <v>138.7618689682071</v>
@@ -31849,13 +31849,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M12" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N12" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O12" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P12" t="n">
         <v>164.093061660043</v>
@@ -31864,13 +31864,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R12" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S12" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T12" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U12" t="n">
         <v>0.05653442796868587</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H13" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I13" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J13" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K13" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L13" t="n">
         <v>107.1079647103696</v>
@@ -31937,7 +31937,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P13" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q13" t="n">
         <v>60.32600360445237</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H14" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I14" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J14" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K14" t="n">
         <v>204.2981498485769</v>
@@ -32025,10 +32025,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S14" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T14" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U14" t="n">
         <v>0.1284856145191171</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H15" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I15" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J15" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K15" t="n">
         <v>138.7618689682071</v>
@@ -32086,13 +32086,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M15" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N15" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O15" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P15" t="n">
         <v>164.093061660043</v>
@@ -32101,13 +32101,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R15" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S15" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T15" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U15" t="n">
         <v>0.05653442796868587</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H16" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I16" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J16" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K16" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L16" t="n">
         <v>107.1079647103696</v>
@@ -32174,7 +32174,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P16" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q16" t="n">
         <v>60.32600360445237</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H17" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I17" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J17" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K17" t="n">
         <v>204.2981498485769</v>
@@ -32262,10 +32262,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S17" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T17" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U17" t="n">
         <v>0.1284856145191171</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H18" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I18" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J18" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K18" t="n">
         <v>138.7618689682071</v>
@@ -32323,13 +32323,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M18" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N18" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O18" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P18" t="n">
         <v>164.093061660043</v>
@@ -32338,13 +32338,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R18" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S18" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T18" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U18" t="n">
         <v>0.05653442796868587</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H19" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I19" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J19" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K19" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L19" t="n">
         <v>107.1079647103696</v>
@@ -32411,7 +32411,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P19" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q19" t="n">
         <v>60.32600360445237</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H20" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I20" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J20" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K20" t="n">
         <v>204.2981498485769</v>
@@ -32499,10 +32499,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S20" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T20" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U20" t="n">
         <v>0.1284856145191171</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H21" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I21" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J21" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K21" t="n">
         <v>138.7618689682071</v>
@@ -32560,13 +32560,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M21" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N21" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O21" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P21" t="n">
         <v>164.093061660043</v>
@@ -32575,13 +32575,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R21" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S21" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T21" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U21" t="n">
         <v>0.05653442796868587</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H22" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I22" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J22" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K22" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L22" t="n">
         <v>107.1079647103696</v>
@@ -32648,7 +32648,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P22" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q22" t="n">
         <v>60.32600360445237</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H23" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I23" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J23" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K23" t="n">
         <v>204.2981498485769</v>
@@ -32736,10 +32736,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S23" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T23" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U23" t="n">
         <v>0.1284856145191171</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H24" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I24" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J24" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K24" t="n">
         <v>138.7618689682071</v>
@@ -32797,13 +32797,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M24" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N24" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O24" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P24" t="n">
         <v>164.093061660043</v>
@@ -32812,13 +32812,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R24" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S24" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T24" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U24" t="n">
         <v>0.05653442796868587</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H25" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I25" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J25" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K25" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L25" t="n">
         <v>107.1079647103696</v>
@@ -32885,7 +32885,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P25" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q25" t="n">
         <v>60.32600360445237</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H26" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I26" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J26" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K26" t="n">
         <v>204.2981498485769</v>
@@ -32973,10 +32973,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S26" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T26" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U26" t="n">
         <v>0.1284856145191171</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H27" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I27" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J27" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K27" t="n">
         <v>138.7618689682071</v>
@@ -33034,13 +33034,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M27" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N27" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O27" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P27" t="n">
         <v>164.093061660043</v>
@@ -33049,13 +33049,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R27" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S27" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T27" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U27" t="n">
         <v>0.05653442796868587</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H28" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I28" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J28" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K28" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L28" t="n">
         <v>107.1079647103696</v>
@@ -33122,7 +33122,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P28" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q28" t="n">
         <v>60.32600360445237</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H29" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I29" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J29" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K29" t="n">
         <v>204.2981498485769</v>
@@ -33210,10 +33210,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S29" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T29" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U29" t="n">
         <v>0.1284856145191171</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H30" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I30" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J30" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K30" t="n">
         <v>138.7618689682071</v>
@@ -33271,13 +33271,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M30" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N30" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O30" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P30" t="n">
         <v>164.093061660043</v>
@@ -33286,13 +33286,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R30" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S30" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T30" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U30" t="n">
         <v>0.05653442796868587</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H31" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I31" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J31" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K31" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L31" t="n">
         <v>107.1079647103696</v>
@@ -33359,7 +33359,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P31" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q31" t="n">
         <v>60.32600360445237</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H32" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I32" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J32" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K32" t="n">
         <v>204.2981498485769</v>
@@ -33447,10 +33447,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S32" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T32" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U32" t="n">
         <v>0.1284856145191171</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H33" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I33" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J33" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K33" t="n">
         <v>138.7618689682071</v>
@@ -33508,13 +33508,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M33" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N33" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O33" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P33" t="n">
         <v>164.093061660043</v>
@@ -33523,13 +33523,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R33" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S33" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T33" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U33" t="n">
         <v>0.05653442796868587</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H34" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I34" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J34" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K34" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L34" t="n">
         <v>107.1079647103696</v>
@@ -33596,7 +33596,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P34" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q34" t="n">
         <v>60.32600360445237</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H35" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I35" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J35" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K35" t="n">
         <v>204.2981498485769</v>
@@ -33684,10 +33684,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S35" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T35" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U35" t="n">
         <v>0.1284856145191171</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H36" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I36" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J36" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K36" t="n">
         <v>138.7618689682071</v>
@@ -33745,13 +33745,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M36" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N36" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O36" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P36" t="n">
         <v>164.093061660043</v>
@@ -33760,13 +33760,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R36" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S36" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T36" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U36" t="n">
         <v>0.05653442796868587</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H37" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I37" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J37" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K37" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L37" t="n">
         <v>107.1079647103696</v>
@@ -33833,7 +33833,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P37" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q37" t="n">
         <v>60.32600360445237</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H38" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I38" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J38" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K38" t="n">
         <v>204.2981498485769</v>
@@ -33921,10 +33921,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S38" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T38" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U38" t="n">
         <v>0.1284856145191171</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H39" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I39" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J39" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K39" t="n">
         <v>138.7618689682071</v>
@@ -33982,13 +33982,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M39" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N39" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O39" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P39" t="n">
         <v>164.093061660043</v>
@@ -33997,13 +33997,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R39" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S39" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T39" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U39" t="n">
         <v>0.05653442796868587</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H40" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I40" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J40" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K40" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L40" t="n">
         <v>107.1079647103696</v>
@@ -34070,7 +34070,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P40" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q40" t="n">
         <v>60.32600360445237</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H41" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I41" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J41" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K41" t="n">
         <v>204.2981498485769</v>
@@ -34158,10 +34158,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S41" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T41" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U41" t="n">
         <v>0.1284856145191171</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H42" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I42" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J42" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K42" t="n">
         <v>138.7618689682071</v>
@@ -34219,13 +34219,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M42" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N42" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O42" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P42" t="n">
         <v>164.093061660043</v>
@@ -34234,13 +34234,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R42" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S42" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T42" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U42" t="n">
         <v>0.05653442796868587</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H43" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I43" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J43" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K43" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L43" t="n">
         <v>107.1079647103696</v>
@@ -34307,7 +34307,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P43" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q43" t="n">
         <v>60.32600360445237</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.606070181488963</v>
+        <v>1.606070181488964</v>
       </c>
       <c r="H44" t="n">
         <v>16.44816624617385</v>
       </c>
       <c r="I44" t="n">
-        <v>61.91802067185332</v>
+        <v>61.91802067185333</v>
       </c>
       <c r="J44" t="n">
-        <v>136.313199066149</v>
+        <v>136.3131990661491</v>
       </c>
       <c r="K44" t="n">
         <v>204.2981498485769</v>
@@ -34395,10 +34395,10 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S44" t="n">
-        <v>36.59832426067979</v>
+        <v>36.5983242606798</v>
       </c>
       <c r="T44" t="n">
-        <v>7.03057221946794</v>
+        <v>7.030572219467942</v>
       </c>
       <c r="U44" t="n">
         <v>0.1284856145191171</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8593233051240248</v>
+        <v>0.8593233051240249</v>
       </c>
       <c r="H45" t="n">
-        <v>8.299254025803082</v>
+        <v>8.299254025803084</v>
       </c>
       <c r="I45" t="n">
-        <v>29.58635063694559</v>
+        <v>29.5863506369456</v>
       </c>
       <c r="J45" t="n">
-        <v>81.18720752489746</v>
+        <v>81.18720752489747</v>
       </c>
       <c r="K45" t="n">
         <v>138.7618689682071</v>
@@ -34456,13 +34456,13 @@
         <v>186.5824571059862</v>
       </c>
       <c r="M45" t="n">
-        <v>217.732926916732</v>
+        <v>217.7329269167321</v>
       </c>
       <c r="N45" t="n">
-        <v>223.4956696076734</v>
+        <v>223.4956696076735</v>
       </c>
       <c r="O45" t="n">
-        <v>204.45487426782</v>
+        <v>204.4548742678201</v>
       </c>
       <c r="P45" t="n">
         <v>164.093061660043</v>
@@ -34471,13 +34471,13 @@
         <v>109.6918661067089</v>
       </c>
       <c r="R45" t="n">
-        <v>53.35342415498113</v>
+        <v>53.35342415498115</v>
       </c>
       <c r="S45" t="n">
         <v>15.96155349649229</v>
       </c>
       <c r="T45" t="n">
-        <v>3.463675953548151</v>
+        <v>3.463675953548152</v>
       </c>
       <c r="U45" t="n">
         <v>0.05653442796868587</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7204277924752752</v>
+        <v>0.7204277924752753</v>
       </c>
       <c r="H46" t="n">
-        <v>6.405258009461997</v>
+        <v>6.405258009461998</v>
       </c>
       <c r="I46" t="n">
         <v>21.66522852280192</v>
       </c>
       <c r="J46" t="n">
-        <v>50.93424492800195</v>
+        <v>50.93424492800196</v>
       </c>
       <c r="K46" t="n">
-        <v>83.70061079849104</v>
+        <v>83.70061079849106</v>
       </c>
       <c r="L46" t="n">
         <v>107.1079647103696</v>
@@ -34544,7 +34544,7 @@
         <v>101.8291937945962</v>
       </c>
       <c r="P46" t="n">
-        <v>87.13246682810052</v>
+        <v>87.13246682810053</v>
       </c>
       <c r="Q46" t="n">
         <v>60.32600360445237</v>
@@ -35412,28 +35412,28 @@
         <v>282.424080792238</v>
       </c>
       <c r="K11" t="n">
-        <v>61.23974666933952</v>
+        <v>84.2127542599392</v>
       </c>
       <c r="L11" t="n">
-        <v>463.5843581394126</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="M11" t="n">
-        <v>570.3070539860549</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N11" t="n">
         <v>137.4566263207456</v>
       </c>
       <c r="O11" t="n">
-        <v>570.3070539860549</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P11" t="n">
-        <v>80.65345244491476</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.93881289287424</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R11" t="n">
-        <v>63.2743214606229</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>195.4447653226019</v>
       </c>
       <c r="K12" t="n">
-        <v>53.54944284419342</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L12" t="n">
-        <v>570.3070539860549</v>
+        <v>96.52211024906798</v>
       </c>
       <c r="M12" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="N12" t="n">
-        <v>138.1235567535068</v>
+        <v>398.9795797216572</v>
       </c>
       <c r="O12" t="n">
-        <v>111.7673153789311</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P12" t="n">
-        <v>570.3070539860549</v>
+        <v>77.00969684072834</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.70371295079487</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R12" t="n">
-        <v>29.67555148406503</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K13" t="n">
         <v>166.362268485301</v>
@@ -35579,7 +35579,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N13" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O13" t="n">
         <v>266.1774433316751</v>
@@ -35588,7 +35588,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>18.63336112380293</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K14" t="n">
-        <v>61.23974666933952</v>
+        <v>61.23974666933955</v>
       </c>
       <c r="L14" t="n">
-        <v>570.3070539860549</v>
+        <v>100.2017504348281</v>
       </c>
       <c r="M14" t="n">
-        <v>570.3070539860549</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N14" t="n">
         <v>570.3070539860549</v>
       </c>
       <c r="O14" t="n">
-        <v>294.5246501425382</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P14" t="n">
-        <v>80.65345244491476</v>
+        <v>567.2606160019498</v>
       </c>
       <c r="Q14" t="n">
-        <v>28.93881289287424</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R14" t="n">
-        <v>63.2743214606229</v>
+        <v>63.27432146062291</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L15" t="n">
-        <v>372.7104498236312</v>
+        <v>474.8112390290637</v>
       </c>
       <c r="M15" t="n">
+        <v>125.3458048674201</v>
+      </c>
+      <c r="N15" t="n">
+        <v>138.1235567535068</v>
+      </c>
+      <c r="O15" t="n">
+        <v>111.7673153789312</v>
+      </c>
+      <c r="P15" t="n">
         <v>570.3070539860549</v>
       </c>
-      <c r="N15" t="n">
-        <v>570.3070539860549</v>
-      </c>
-      <c r="O15" t="n">
-        <v>570.3070539860549</v>
-      </c>
-      <c r="P15" t="n">
-        <v>77.00969684072831</v>
-      </c>
       <c r="Q15" t="n">
-        <v>18.70371295079487</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R15" t="n">
-        <v>29.67555148406503</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K16" t="n">
         <v>166.362268485301</v>
@@ -35816,7 +35816,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N16" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O16" t="n">
         <v>266.1774433316751</v>
@@ -35825,7 +35825,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>18.63336112380293</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K17" t="n">
-        <v>61.23974666933952</v>
+        <v>491.0437363505434</v>
       </c>
       <c r="L17" t="n">
-        <v>570.3070539860549</v>
+        <v>100.2017504348281</v>
       </c>
       <c r="M17" t="n">
-        <v>570.3070539860549</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N17" t="n">
-        <v>570.3070539860549</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O17" t="n">
         <v>121.0409198672524</v>
       </c>
       <c r="P17" t="n">
-        <v>80.65345244491476</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.4225431681605</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R17" t="n">
-        <v>63.2743214606229</v>
+        <v>63.27432146062291</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K18" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L18" t="n">
-        <v>372.7104498236312</v>
+        <v>96.52211024906798</v>
       </c>
       <c r="M18" t="n">
+        <v>125.3458048674201</v>
+      </c>
+      <c r="N18" t="n">
+        <v>138.1235567535068</v>
+      </c>
+      <c r="O18" t="n">
+        <v>294.6116788363249</v>
+      </c>
+      <c r="P18" t="n">
         <v>570.3070539860549</v>
       </c>
-      <c r="N18" t="n">
-        <v>570.3070539860549</v>
-      </c>
-      <c r="O18" t="n">
-        <v>570.3070539860549</v>
-      </c>
-      <c r="P18" t="n">
-        <v>77.00969684072831</v>
-      </c>
       <c r="Q18" t="n">
-        <v>18.70371295079487</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R18" t="n">
-        <v>29.67555148406503</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K19" t="n">
         <v>166.362268485301</v>
@@ -36053,7 +36053,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N19" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O19" t="n">
         <v>266.1774433316751</v>
@@ -36062,7 +36062,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>282.424080792238</v>
       </c>
       <c r="K20" t="n">
-        <v>61.23974666933952</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L20" t="n">
-        <v>100.2017504348281</v>
+        <v>513.9924980461554</v>
       </c>
       <c r="M20" t="n">
-        <v>570.3070539860549</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N20" t="n">
-        <v>500.8392340253301</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O20" t="n">
-        <v>570.3070539860549</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P20" t="n">
-        <v>80.65345244491476</v>
+        <v>80.65345244491479</v>
       </c>
       <c r="Q20" t="n">
-        <v>28.93881289287424</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R20" t="n">
-        <v>63.2743214606229</v>
+        <v>63.27432146062291</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K21" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L21" t="n">
-        <v>96.52211024906795</v>
+        <v>96.52211024906798</v>
       </c>
       <c r="M21" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N21" t="n">
-        <v>470.4387166660015</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O21" t="n">
-        <v>570.3070539860549</v>
+        <v>294.6116788363249</v>
       </c>
       <c r="P21" t="n">
         <v>570.3070539860549</v>
@@ -36223,7 +36223,7 @@
         <v>346.4242818187195</v>
       </c>
       <c r="R21" t="n">
-        <v>29.67555148406503</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K22" t="n">
         <v>166.362268485301</v>
@@ -36290,7 +36290,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N22" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O22" t="n">
         <v>266.1774433316751</v>
@@ -36299,7 +36299,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>751.7532451335308</v>
       </c>
       <c r="M23" t="n">
-        <v>833.5279314064657</v>
+        <v>374.3961091624387</v>
       </c>
       <c r="N23" t="n">
-        <v>819.7178284034408</v>
+        <v>819.7178284034409</v>
       </c>
       <c r="O23" t="n">
         <v>715.089202637135</v>
       </c>
       <c r="P23" t="n">
-        <v>518.0133218384769</v>
+        <v>582.6594371924277</v>
       </c>
       <c r="Q23" t="n">
-        <v>28.93881289287424</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>63.27432146062291</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K24" t="n">
-        <v>385.7024715284127</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L24" t="n">
-        <v>675.0330489224642</v>
+        <v>275.8619117734862</v>
       </c>
       <c r="M24" t="n">
-        <v>851.8457043174201</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N24" t="n">
         <v>138.1235567535068</v>
       </c>
       <c r="O24" t="n">
-        <v>111.7673153789311</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P24" t="n">
-        <v>77.00969684072831</v>
+        <v>573.8116159190303</v>
       </c>
       <c r="Q24" t="n">
-        <v>18.70371295079487</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K25" t="n">
         <v>166.362268485301</v>
@@ -36527,7 +36527,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N25" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O25" t="n">
         <v>266.1774433316751</v>
@@ -36536,7 +36536,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>217.7779654382876</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K26" t="n">
         <v>566.9065902803566</v>
@@ -36603,10 +36603,10 @@
         <v>751.7532451335308</v>
       </c>
       <c r="M26" t="n">
-        <v>833.5279314064657</v>
+        <v>374.3961091624387</v>
       </c>
       <c r="N26" t="n">
-        <v>819.7178284034408</v>
+        <v>819.7178284034409</v>
       </c>
       <c r="O26" t="n">
         <v>715.089202637135</v>
@@ -36615,10 +36615,10 @@
         <v>582.6594371924277</v>
       </c>
       <c r="Q26" t="n">
-        <v>28.93881289287424</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>63.27432146062291</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K27" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L27" t="n">
-        <v>675.0330489224642</v>
+        <v>275.8619117734862</v>
       </c>
       <c r="M27" t="n">
-        <v>851.8457043174201</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N27" t="n">
         <v>138.1235567535068</v>
       </c>
       <c r="O27" t="n">
-        <v>111.7673153789311</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P27" t="n">
-        <v>413.5472347342667</v>
+        <v>573.8116159190303</v>
       </c>
       <c r="Q27" t="n">
-        <v>18.70371295079487</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K28" t="n">
         <v>166.362268485301</v>
@@ -36764,7 +36764,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N28" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O28" t="n">
         <v>266.1774433316751</v>
@@ -36773,7 +36773,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,22 +36840,22 @@
         <v>751.7532451335308</v>
       </c>
       <c r="M29" t="n">
-        <v>833.5279314064657</v>
+        <v>374.3961091624387</v>
       </c>
       <c r="N29" t="n">
-        <v>819.7178284034408</v>
+        <v>819.7178284034409</v>
       </c>
       <c r="O29" t="n">
         <v>715.089202637135</v>
       </c>
       <c r="P29" t="n">
-        <v>518.0133218384769</v>
+        <v>582.6594371924277</v>
       </c>
       <c r="Q29" t="n">
-        <v>28.93881289287424</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>63.27432146062291</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K30" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L30" t="n">
-        <v>375.8711642183611</v>
+        <v>275.8619117734862</v>
       </c>
       <c r="M30" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N30" t="n">
-        <v>885.8976607294503</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O30" t="n">
-        <v>726.1925334506292</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P30" t="n">
-        <v>77.00969684072831</v>
+        <v>573.8116159190303</v>
       </c>
       <c r="Q30" t="n">
-        <v>18.70371295079487</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K31" t="n">
         <v>166.362268485301</v>
@@ -37001,7 +37001,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N31" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O31" t="n">
         <v>266.1774433316751</v>
@@ -37010,7 +37010,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.424080792238</v>
+        <v>18.63336112380296</v>
       </c>
       <c r="K32" t="n">
         <v>566.9065902803566</v>
       </c>
       <c r="L32" t="n">
-        <v>292.6214228895066</v>
+        <v>751.7532451335308</v>
       </c>
       <c r="M32" t="n">
         <v>833.5279314064657</v>
       </c>
       <c r="N32" t="n">
-        <v>819.7178284034408</v>
+        <v>819.7178284034409</v>
       </c>
       <c r="O32" t="n">
-        <v>715.089202637135</v>
+        <v>583.022421522165</v>
       </c>
       <c r="P32" t="n">
         <v>582.6594371924277</v>
@@ -37092,7 +37092,7 @@
         <v>360.1501983223255</v>
       </c>
       <c r="R32" t="n">
-        <v>63.2743214606229</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K33" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L33" t="n">
-        <v>375.8711642183611</v>
+        <v>275.8619117734862</v>
       </c>
       <c r="M33" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N33" t="n">
-        <v>885.8976607294503</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O33" t="n">
-        <v>726.1925334506292</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P33" t="n">
-        <v>77.00969684072831</v>
+        <v>573.8116159190303</v>
       </c>
       <c r="Q33" t="n">
-        <v>18.70371295079487</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K34" t="n">
         <v>166.362268485301</v>
@@ -37238,7 +37238,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N34" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O34" t="n">
         <v>266.1774433316751</v>
@@ -37247,7 +37247,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>18.63336112380293</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K35" t="n">
-        <v>61.23974666933952</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L35" t="n">
-        <v>570.3070539860551</v>
+        <v>100.2017504348281</v>
       </c>
       <c r="M35" t="n">
-        <v>570.3070539860551</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N35" t="n">
-        <v>357.7989716031613</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O35" t="n">
-        <v>570.3070539860551</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P35" t="n">
-        <v>80.65345244491476</v>
+        <v>494.4442000562419</v>
       </c>
       <c r="Q35" t="n">
-        <v>28.93881289287424</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.27432146062291</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K36" t="n">
-        <v>49.16493363487378</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L36" t="n">
-        <v>96.52211024906795</v>
+        <v>279.3664737064617</v>
       </c>
       <c r="M36" t="n">
-        <v>570.3070539860551</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N36" t="n">
-        <v>548.4503761767577</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O36" t="n">
-        <v>570.3070539860551</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P36" t="n">
-        <v>77.00969684072831</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q36" t="n">
         <v>346.4242818187195</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K37" t="n">
         <v>166.362268485301</v>
@@ -37475,7 +37475,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N37" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O37" t="n">
         <v>266.1774433316751</v>
@@ -37484,7 +37484,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>18.63336112380293</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K38" t="n">
-        <v>61.23974666933952</v>
+        <v>491.0437363505434</v>
       </c>
       <c r="L38" t="n">
-        <v>570.3070539860551</v>
+        <v>100.2017504348281</v>
       </c>
       <c r="M38" t="n">
-        <v>570.3070539860551</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N38" t="n">
         <v>137.4566263207456</v>
       </c>
       <c r="O38" t="n">
-        <v>570.3070539860551</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P38" t="n">
-        <v>237.7214762667079</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q38" t="n">
-        <v>28.93881289287424</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R38" t="n">
-        <v>63.2743214606229</v>
+        <v>63.27432146062291</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>461.7307033744964</v>
       </c>
       <c r="L39" t="n">
-        <v>570.3070539860551</v>
+        <v>279.3664737064612</v>
       </c>
       <c r="M39" t="n">
         <v>125.3458048674201</v>
@@ -37636,16 +37636,16 @@
         <v>138.1235567535068</v>
       </c>
       <c r="O39" t="n">
-        <v>178.2228554513283</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P39" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q39" t="n">
-        <v>18.70371295079487</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K40" t="n">
         <v>166.362268485301</v>
@@ -37712,7 +37712,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N40" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O40" t="n">
         <v>266.1774433316751</v>
@@ -37721,7 +37721,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>18.63336112380293</v>
+        <v>269.8355483230479</v>
       </c>
       <c r="K41" t="n">
-        <v>61.23974666933952</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L41" t="n">
         <v>100.2017504348281</v>
@@ -37791,19 +37791,19 @@
         <v>132.2868191576469</v>
       </c>
       <c r="N41" t="n">
-        <v>381.7852015515825</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O41" t="n">
-        <v>570.3070539860551</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P41" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q41" t="n">
         <v>360.1501983223255</v>
       </c>
       <c r="R41" t="n">
-        <v>63.2743214606229</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K42" t="n">
         <v>461.7307033744964</v>
       </c>
       <c r="L42" t="n">
-        <v>474.8112390290642</v>
+        <v>96.52211024906798</v>
       </c>
       <c r="M42" t="n">
         <v>125.3458048674201</v>
@@ -37873,16 +37873,16 @@
         <v>138.1235567535068</v>
       </c>
       <c r="O42" t="n">
-        <v>111.7673153789311</v>
+        <v>294.6116788363249</v>
       </c>
       <c r="P42" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q42" t="n">
         <v>346.4242818187195</v>
       </c>
       <c r="R42" t="n">
-        <v>29.67555148406503</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K43" t="n">
         <v>166.362268485301</v>
@@ -37949,7 +37949,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N43" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O43" t="n">
         <v>266.1774433316751</v>
@@ -37958,7 +37958,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>282.424080792238</v>
       </c>
       <c r="K44" t="n">
-        <v>61.23974666933952</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L44" t="n">
-        <v>543.2743860535284</v>
+        <v>100.2017504348281</v>
       </c>
       <c r="M44" t="n">
-        <v>570.3070539860548</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N44" t="n">
-        <v>570.3070539860548</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O44" t="n">
         <v>121.0409198672524</v>
       </c>
       <c r="P44" t="n">
-        <v>80.65345244491476</v>
+        <v>557.7185215168648</v>
       </c>
       <c r="Q44" t="n">
-        <v>28.93881289287424</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K45" t="n">
         <v>461.7307033744964</v>
       </c>
       <c r="L45" t="n">
-        <v>343.9920692898643</v>
+        <v>279.3664737064617</v>
       </c>
       <c r="M45" t="n">
         <v>125.3458048674201</v>
@@ -38110,16 +38110,16 @@
         <v>138.1235567535068</v>
       </c>
       <c r="O45" t="n">
-        <v>570.3070539860548</v>
+        <v>111.7673153789312</v>
       </c>
       <c r="P45" t="n">
-        <v>570.3070539860548</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.70371295079487</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R45" t="n">
-        <v>29.67555148406503</v>
+        <v>29.67555148406505</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.85975745584288</v>
+        <v>20.85975745584289</v>
       </c>
       <c r="K46" t="n">
         <v>166.362268485301</v>
@@ -38186,7 +38186,7 @@
         <v>301.1036425950753</v>
       </c>
       <c r="N46" t="n">
-        <v>295.2851346543798</v>
+        <v>295.2851346543799</v>
       </c>
       <c r="O46" t="n">
         <v>266.1774433316751</v>
@@ -38195,7 +38195,7 @@
         <v>208.2195029660587</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.78276761460485</v>
+        <v>63.78276761460486</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
